--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2018.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="853" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="793" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3737,191 +3737,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3969,11 +3786,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4842,42 +4842,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="230"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4897,23 +4897,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="221"/>
-      <c r="O5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5036,38 +5036,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="214" t="s">
+      <c r="F12" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="218" t="s">
+      <c r="H12" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="216" t="s">
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="222"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -5077,9 +5077,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="212"/>
+      <c r="O13" s="225"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5672,14 +5672,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="209"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="228"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5712,42 +5712,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="203" t="s">
+      <c r="A35" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="203"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="203"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="229"/>
+      <c r="M35" s="229"/>
+      <c r="N35" s="229"/>
+      <c r="O35" s="229"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="204"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="230"/>
+      <c r="O36" s="230"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5870,38 +5870,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="213"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="214" t="s">
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="214" t="s">
+      <c r="F43" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="216" t="s">
+      <c r="G43" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="218" t="s">
+      <c r="H43" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="220"/>
-      <c r="O43" s="216" t="s">
+      <c r="I43" s="222"/>
+      <c r="J43" s="222"/>
+      <c r="K43" s="222"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="222"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212"/>
+      <c r="A44" s="225"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5911,9 +5911,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="215"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="212"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="225"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5935,17 +5935,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="212"/>
+      <c r="O44" s="225"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="207"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="238"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -6400,14 +6400,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="208" t="s">
+      <c r="A66" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="209"/>
-      <c r="C66" s="209"/>
-      <c r="D66" s="209"/>
-      <c r="E66" s="209"/>
-      <c r="F66" s="210"/>
+      <c r="B66" s="227"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="227"/>
+      <c r="F66" s="228"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -6440,42 +6440,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="203" t="s">
+      <c r="A69" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="203"/>
-      <c r="C69" s="203"/>
-      <c r="D69" s="203"/>
-      <c r="E69" s="203"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
-      <c r="L69" s="203"/>
-      <c r="M69" s="203"/>
-      <c r="N69" s="203"/>
-      <c r="O69" s="203"/>
+      <c r="B69" s="229"/>
+      <c r="C69" s="229"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="229"/>
+      <c r="K69" s="229"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="229"/>
+      <c r="N69" s="229"/>
+      <c r="O69" s="229"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="204" t="s">
+      <c r="A70" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="204"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
-      <c r="G70" s="204"/>
-      <c r="H70" s="204"/>
-      <c r="I70" s="204"/>
-      <c r="J70" s="204"/>
-      <c r="K70" s="204"/>
-      <c r="L70" s="204"/>
-      <c r="M70" s="204"/>
-      <c r="N70" s="204"/>
-      <c r="O70" s="204"/>
+      <c r="B70" s="230"/>
+      <c r="C70" s="230"/>
+      <c r="D70" s="230"/>
+      <c r="E70" s="230"/>
+      <c r="F70" s="230"/>
+      <c r="G70" s="230"/>
+      <c r="H70" s="230"/>
+      <c r="I70" s="230"/>
+      <c r="J70" s="230"/>
+      <c r="K70" s="230"/>
+      <c r="L70" s="230"/>
+      <c r="M70" s="230"/>
+      <c r="N70" s="230"/>
+      <c r="O70" s="230"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6598,38 +6598,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="211" t="s">
+      <c r="A77" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="213" t="s">
+      <c r="B77" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="213"/>
-      <c r="D77" s="213"/>
-      <c r="E77" s="214" t="s">
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
+      <c r="E77" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="214" t="s">
+      <c r="F77" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="216" t="s">
+      <c r="G77" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="218" t="s">
+      <c r="H77" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="219"/>
-      <c r="J77" s="219"/>
-      <c r="K77" s="219"/>
-      <c r="L77" s="219"/>
-      <c r="M77" s="219"/>
-      <c r="N77" s="220"/>
-      <c r="O77" s="216" t="s">
+      <c r="I77" s="222"/>
+      <c r="J77" s="222"/>
+      <c r="K77" s="222"/>
+      <c r="L77" s="222"/>
+      <c r="M77" s="222"/>
+      <c r="N77" s="223"/>
+      <c r="O77" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="212"/>
+      <c r="A78" s="225"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6639,9 +6639,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="215"/>
-      <c r="F78" s="217"/>
-      <c r="G78" s="212"/>
+      <c r="E78" s="234"/>
+      <c r="F78" s="235"/>
+      <c r="G78" s="225"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6663,17 +6663,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="212"/>
+      <c r="O78" s="225"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="205" t="s">
+      <c r="A79" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="206"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="206"/>
-      <c r="E79" s="206"/>
-      <c r="F79" s="207"/>
+      <c r="B79" s="237"/>
+      <c r="C79" s="237"/>
+      <c r="D79" s="237"/>
+      <c r="E79" s="237"/>
+      <c r="F79" s="238"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -7106,14 +7106,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="208" t="s">
+      <c r="A99" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="209"/>
-      <c r="C99" s="209"/>
-      <c r="D99" s="209"/>
-      <c r="E99" s="209"/>
-      <c r="F99" s="210"/>
+      <c r="B99" s="227"/>
+      <c r="C99" s="227"/>
+      <c r="D99" s="227"/>
+      <c r="E99" s="227"/>
+      <c r="F99" s="228"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -7199,42 +7199,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="203" t="s">
+      <c r="A105" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="203"/>
-      <c r="C105" s="203"/>
-      <c r="D105" s="203"/>
-      <c r="E105" s="203"/>
-      <c r="F105" s="203"/>
-      <c r="G105" s="203"/>
-      <c r="H105" s="203"/>
-      <c r="I105" s="203"/>
-      <c r="J105" s="203"/>
-      <c r="K105" s="203"/>
-      <c r="L105" s="203"/>
-      <c r="M105" s="203"/>
-      <c r="N105" s="203"/>
-      <c r="O105" s="203"/>
+      <c r="B105" s="229"/>
+      <c r="C105" s="229"/>
+      <c r="D105" s="229"/>
+      <c r="E105" s="229"/>
+      <c r="F105" s="229"/>
+      <c r="G105" s="229"/>
+      <c r="H105" s="229"/>
+      <c r="I105" s="229"/>
+      <c r="J105" s="229"/>
+      <c r="K105" s="229"/>
+      <c r="L105" s="229"/>
+      <c r="M105" s="229"/>
+      <c r="N105" s="229"/>
+      <c r="O105" s="229"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="204" t="s">
+      <c r="A106" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="204"/>
-      <c r="C106" s="204"/>
-      <c r="D106" s="204"/>
-      <c r="E106" s="204"/>
-      <c r="F106" s="204"/>
-      <c r="G106" s="204"/>
-      <c r="H106" s="204"/>
-      <c r="I106" s="204"/>
-      <c r="J106" s="204"/>
-      <c r="K106" s="204"/>
-      <c r="L106" s="204"/>
-      <c r="M106" s="204"/>
-      <c r="N106" s="204"/>
-      <c r="O106" s="204"/>
+      <c r="B106" s="230"/>
+      <c r="C106" s="230"/>
+      <c r="D106" s="230"/>
+      <c r="E106" s="230"/>
+      <c r="F106" s="230"/>
+      <c r="G106" s="230"/>
+      <c r="H106" s="230"/>
+      <c r="I106" s="230"/>
+      <c r="J106" s="230"/>
+      <c r="K106" s="230"/>
+      <c r="L106" s="230"/>
+      <c r="M106" s="230"/>
+      <c r="N106" s="230"/>
+      <c r="O106" s="230"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -7254,23 +7254,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="221" t="s">
+      <c r="A108" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="221"/>
-      <c r="C108" s="221"/>
-      <c r="D108" s="221"/>
-      <c r="E108" s="221"/>
-      <c r="F108" s="221"/>
-      <c r="G108" s="221"/>
-      <c r="H108" s="221"/>
-      <c r="I108" s="221"/>
-      <c r="J108" s="221"/>
-      <c r="K108" s="221"/>
-      <c r="L108" s="221"/>
-      <c r="M108" s="221"/>
-      <c r="N108" s="221"/>
-      <c r="O108" s="221"/>
+      <c r="B108" s="220"/>
+      <c r="C108" s="220"/>
+      <c r="D108" s="220"/>
+      <c r="E108" s="220"/>
+      <c r="F108" s="220"/>
+      <c r="G108" s="220"/>
+      <c r="H108" s="220"/>
+      <c r="I108" s="220"/>
+      <c r="J108" s="220"/>
+      <c r="K108" s="220"/>
+      <c r="L108" s="220"/>
+      <c r="M108" s="220"/>
+      <c r="N108" s="220"/>
+      <c r="O108" s="220"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -7393,38 +7393,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="211" t="s">
+      <c r="A115" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="213" t="s">
+      <c r="B115" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="213"/>
-      <c r="D115" s="213"/>
-      <c r="E115" s="214" t="s">
+      <c r="C115" s="232"/>
+      <c r="D115" s="232"/>
+      <c r="E115" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="214" t="s">
+      <c r="F115" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="216" t="s">
+      <c r="G115" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="218" t="s">
+      <c r="H115" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="219"/>
-      <c r="J115" s="219"/>
-      <c r="K115" s="219"/>
-      <c r="L115" s="219"/>
-      <c r="M115" s="219"/>
-      <c r="N115" s="220"/>
-      <c r="O115" s="216" t="s">
+      <c r="I115" s="222"/>
+      <c r="J115" s="222"/>
+      <c r="K115" s="222"/>
+      <c r="L115" s="222"/>
+      <c r="M115" s="222"/>
+      <c r="N115" s="223"/>
+      <c r="O115" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="212"/>
+      <c r="A116" s="225"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -7434,9 +7434,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="215"/>
-      <c r="F116" s="217"/>
-      <c r="G116" s="212"/>
+      <c r="E116" s="234"/>
+      <c r="F116" s="235"/>
+      <c r="G116" s="225"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="212"/>
+      <c r="O116" s="225"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7587,14 +7587,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="208" t="s">
+      <c r="A122" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="209"/>
-      <c r="C122" s="209"/>
-      <c r="D122" s="209"/>
-      <c r="E122" s="209"/>
-      <c r="F122" s="210"/>
+      <c r="B122" s="227"/>
+      <c r="C122" s="227"/>
+      <c r="D122" s="227"/>
+      <c r="E122" s="227"/>
+      <c r="F122" s="228"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7637,6 +7637,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -7653,34 +7681,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -8660,34 +8660,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8703,19 +8703,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -8814,34 +8814,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="216" t="s">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -8851,9 +8851,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -8863,7 +8863,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="212"/>
+      <c r="K13" s="225"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -10852,14 +10852,14 @@
       <c r="M145" s="196"/>
     </row>
     <row r="146" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="208" t="s">
+      <c r="A146" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="209"/>
-      <c r="C146" s="209"/>
-      <c r="D146" s="209"/>
-      <c r="E146" s="209"/>
-      <c r="F146" s="210"/>
+      <c r="B146" s="227"/>
+      <c r="C146" s="227"/>
+      <c r="D146" s="227"/>
+      <c r="E146" s="227"/>
+      <c r="F146" s="228"/>
       <c r="G146" s="172">
         <f>SUM(G14:G145)</f>
         <v>0</v>
@@ -11005,21 +11005,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -11037,21 +11037,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -11161,56 +11161,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="240" t="s">
+      <c r="C10" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="242" t="s">
+      <c r="D10" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="240" t="s">
+      <c r="E10" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="240" t="s">
+      <c r="F10" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="240" t="s">
+      <c r="G10" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="240" t="s">
+      <c r="H10" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="244" t="s">
+      <c r="I10" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="240" t="s">
+      <c r="J10" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="240" t="s">
+      <c r="K10" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="240" t="s">
+      <c r="L10" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="246" t="s">
+      <c r="M10" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="247"/>
+      <c r="N10" s="266"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="239"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="241"/>
+      <c r="B11" s="274"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="264"/>
+      <c r="K11" s="264"/>
+      <c r="L11" s="264"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -11345,24 +11345,24 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="250"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="269"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="251"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="253"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="272"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11391,21 +11391,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="221"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="220"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -11423,21 +11423,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="221" t="s">
+      <c r="B25" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -11547,56 +11547,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="238" t="s">
+      <c r="B31" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="240" t="s">
+      <c r="C31" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="242" t="s">
+      <c r="D31" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="240" t="s">
+      <c r="E31" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="240" t="s">
+      <c r="F31" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="240" t="s">
+      <c r="G31" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="240" t="s">
+      <c r="H31" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="244" t="s">
+      <c r="I31" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="240" t="s">
+      <c r="J31" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="240" t="s">
+      <c r="K31" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="240" t="s">
+      <c r="L31" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="246" t="s">
+      <c r="M31" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="247"/>
+      <c r="N31" s="266"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="239"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="245"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
+      <c r="B32" s="274"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="276"/>
+      <c r="E32" s="264"/>
+      <c r="F32" s="264"/>
+      <c r="G32" s="264"/>
+      <c r="H32" s="264"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="264"/>
+      <c r="K32" s="264"/>
+      <c r="L32" s="264"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -11690,24 +11690,24 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="254" t="s">
+      <c r="B38" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="255"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="255"/>
-      <c r="F38" s="255"/>
-      <c r="G38" s="255"/>
-      <c r="H38" s="256"/>
+      <c r="C38" s="278"/>
+      <c r="D38" s="278"/>
+      <c r="E38" s="278"/>
+      <c r="F38" s="278"/>
+      <c r="G38" s="278"/>
+      <c r="H38" s="279"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="257"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="259"/>
+      <c r="J38" s="280"/>
+      <c r="K38" s="281"/>
+      <c r="L38" s="281"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="282"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11736,21 +11736,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="221"/>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="221"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="220"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -11768,21 +11768,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="221" t="s">
+      <c r="B45" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="221"/>
-      <c r="D45" s="221"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="221"/>
-      <c r="J45" s="221"/>
-      <c r="K45" s="221"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="221"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
+      <c r="N45" s="220"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -11892,56 +11892,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="238" t="s">
+      <c r="B51" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="240" t="s">
+      <c r="C51" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="242" t="s">
+      <c r="D51" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="240" t="s">
+      <c r="E51" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="240" t="s">
+      <c r="F51" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="240" t="s">
+      <c r="G51" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="240" t="s">
+      <c r="H51" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="244" t="s">
+      <c r="I51" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="240" t="s">
+      <c r="J51" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="240" t="s">
+      <c r="K51" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="240" t="s">
+      <c r="L51" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="246" t="s">
+      <c r="M51" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="247"/>
+      <c r="N51" s="266"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="239"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="243"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="245"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="241"/>
+      <c r="B52" s="274"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="264"/>
+      <c r="F52" s="264"/>
+      <c r="G52" s="264"/>
+      <c r="H52" s="264"/>
+      <c r="I52" s="262"/>
+      <c r="J52" s="264"/>
+      <c r="K52" s="264"/>
+      <c r="L52" s="264"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -12018,24 +12018,24 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="254" t="s">
+      <c r="B57" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="255"/>
-      <c r="D57" s="255"/>
-      <c r="E57" s="255"/>
-      <c r="F57" s="255"/>
-      <c r="G57" s="255"/>
-      <c r="H57" s="256"/>
+      <c r="C57" s="278"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="278"/>
+      <c r="F57" s="278"/>
+      <c r="G57" s="278"/>
+      <c r="H57" s="279"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="257"/>
-      <c r="K57" s="258"/>
-      <c r="L57" s="258"/>
-      <c r="M57" s="258"/>
-      <c r="N57" s="259"/>
+      <c r="J57" s="280"/>
+      <c r="K57" s="281"/>
+      <c r="L57" s="281"/>
+      <c r="M57" s="281"/>
+      <c r="N57" s="282"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12072,21 +12072,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="221" t="s">
+      <c r="B64" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="221"/>
-      <c r="D64" s="221"/>
-      <c r="E64" s="221"/>
-      <c r="F64" s="221"/>
-      <c r="G64" s="221"/>
-      <c r="H64" s="221"/>
-      <c r="I64" s="221"/>
-      <c r="J64" s="221"/>
-      <c r="K64" s="221"/>
-      <c r="L64" s="221"/>
-      <c r="M64" s="221"/>
-      <c r="N64" s="221"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="220"/>
+      <c r="F64" s="220"/>
+      <c r="G64" s="220"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="220"/>
+      <c r="J64" s="220"/>
+      <c r="K64" s="220"/>
+      <c r="L64" s="220"/>
+      <c r="M64" s="220"/>
+      <c r="N64" s="220"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -12104,21 +12104,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="221" t="s">
+      <c r="B66" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="221"/>
-      <c r="D66" s="221"/>
-      <c r="E66" s="221"/>
-      <c r="F66" s="221"/>
-      <c r="G66" s="221"/>
-      <c r="H66" s="221"/>
-      <c r="I66" s="221"/>
-      <c r="J66" s="221"/>
-      <c r="K66" s="221"/>
-      <c r="L66" s="221"/>
-      <c r="M66" s="221"/>
-      <c r="N66" s="221"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="220"/>
+      <c r="F66" s="220"/>
+      <c r="G66" s="220"/>
+      <c r="H66" s="220"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="220"/>
+      <c r="K66" s="220"/>
+      <c r="L66" s="220"/>
+      <c r="M66" s="220"/>
+      <c r="N66" s="220"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -12228,56 +12228,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="238" t="s">
+      <c r="B72" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="240" t="s">
+      <c r="C72" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="242" t="s">
+      <c r="D72" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="240" t="s">
+      <c r="E72" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="240" t="s">
+      <c r="F72" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="240" t="s">
+      <c r="G72" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="240" t="s">
+      <c r="H72" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="244" t="s">
+      <c r="I72" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="240" t="s">
+      <c r="J72" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="240" t="s">
+      <c r="K72" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="240" t="s">
+      <c r="L72" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="246" t="s">
+      <c r="M72" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="247"/>
+      <c r="N72" s="266"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="239"/>
-      <c r="C73" s="241"/>
-      <c r="D73" s="243"/>
-      <c r="E73" s="241"/>
-      <c r="F73" s="241"/>
-      <c r="G73" s="241"/>
-      <c r="H73" s="241"/>
-      <c r="I73" s="245"/>
-      <c r="J73" s="241"/>
-      <c r="K73" s="241"/>
-      <c r="L73" s="241"/>
+      <c r="B73" s="274"/>
+      <c r="C73" s="264"/>
+      <c r="D73" s="276"/>
+      <c r="E73" s="264"/>
+      <c r="F73" s="264"/>
+      <c r="G73" s="264"/>
+      <c r="H73" s="264"/>
+      <c r="I73" s="262"/>
+      <c r="J73" s="264"/>
+      <c r="K73" s="264"/>
+      <c r="L73" s="264"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -12337,24 +12337,24 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="248" t="s">
+      <c r="B77" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="249"/>
-      <c r="D77" s="249"/>
-      <c r="E77" s="249"/>
-      <c r="F77" s="249"/>
-      <c r="G77" s="249"/>
-      <c r="H77" s="250"/>
+      <c r="C77" s="268"/>
+      <c r="D77" s="268"/>
+      <c r="E77" s="268"/>
+      <c r="F77" s="268"/>
+      <c r="G77" s="268"/>
+      <c r="H77" s="269"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="251"/>
-      <c r="K77" s="252"/>
-      <c r="L77" s="252"/>
-      <c r="M77" s="252"/>
-      <c r="N77" s="253"/>
+      <c r="J77" s="270"/>
+      <c r="K77" s="271"/>
+      <c r="L77" s="271"/>
+      <c r="M77" s="271"/>
+      <c r="N77" s="272"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12406,12 +12406,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -12428,52 +12468,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -12514,21 +12514,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -12638,56 +12638,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="240" t="s">
+      <c r="C9" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="240" t="s">
+      <c r="E9" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="240" t="s">
+      <c r="F9" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="240" t="s">
+      <c r="G9" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="240" t="s">
+      <c r="H9" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="244" t="s">
+      <c r="I9" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="240" t="s">
+      <c r="J9" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="240" t="s">
+      <c r="K9" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="240" t="s">
+      <c r="L9" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="246" t="s">
+      <c r="M9" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="247"/>
+      <c r="N9" s="266"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="239"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="241"/>
+      <c r="B10" s="274"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="264"/>
+      <c r="K10" s="264"/>
+      <c r="L10" s="264"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -13116,44 +13116,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="250"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="268"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="269"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="251"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="252"/>
-      <c r="N31" s="253"/>
+      <c r="J31" s="270"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="271"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="272"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="221" t="s">
+      <c r="B35" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="221"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="221"/>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="221"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="221"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="221"/>
-      <c r="N35" s="221"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="220"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -13263,56 +13263,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="238" t="s">
+      <c r="B42" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="240" t="s">
+      <c r="C42" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="242" t="s">
+      <c r="D42" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="240" t="s">
+      <c r="E42" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="240" t="s">
+      <c r="F42" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="240" t="s">
+      <c r="G42" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="240" t="s">
+      <c r="H42" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="244" t="s">
+      <c r="I42" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="240" t="s">
+      <c r="J42" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="240" t="s">
+      <c r="K42" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="240" t="s">
+      <c r="L42" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="246" t="s">
+      <c r="M42" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="247"/>
+      <c r="N42" s="266"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="239"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="243"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="245"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="241"/>
-      <c r="L43" s="241"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="264"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="264"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="262"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="264"/>
+      <c r="L43" s="264"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -13321,24 +13321,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="254" t="s">
+      <c r="B44" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="255"/>
-      <c r="D44" s="255"/>
-      <c r="E44" s="255"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="255"/>
-      <c r="H44" s="256"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="278"/>
+      <c r="E44" s="278"/>
+      <c r="F44" s="278"/>
+      <c r="G44" s="278"/>
+      <c r="H44" s="279"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="257"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="258"/>
-      <c r="M44" s="258"/>
-      <c r="N44" s="259"/>
+      <c r="J44" s="280"/>
+      <c r="K44" s="281"/>
+      <c r="L44" s="281"/>
+      <c r="M44" s="281"/>
+      <c r="N44" s="282"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -13702,44 +13702,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="249"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="249"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="250"/>
+      <c r="C63" s="268"/>
+      <c r="D63" s="268"/>
+      <c r="E63" s="268"/>
+      <c r="F63" s="268"/>
+      <c r="G63" s="268"/>
+      <c r="H63" s="269"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="251"/>
-      <c r="K63" s="252"/>
-      <c r="L63" s="252"/>
-      <c r="M63" s="252"/>
-      <c r="N63" s="253"/>
+      <c r="J63" s="270"/>
+      <c r="K63" s="271"/>
+      <c r="L63" s="271"/>
+      <c r="M63" s="271"/>
+      <c r="N63" s="272"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="221" t="s">
+      <c r="B67" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="221"/>
-      <c r="D67" s="221"/>
-      <c r="E67" s="221"/>
-      <c r="F67" s="221"/>
-      <c r="G67" s="221"/>
-      <c r="H67" s="221"/>
-      <c r="I67" s="221"/>
-      <c r="J67" s="221"/>
-      <c r="K67" s="221"/>
-      <c r="L67" s="221"/>
-      <c r="M67" s="221"/>
-      <c r="N67" s="221"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
+      <c r="E67" s="220"/>
+      <c r="F67" s="220"/>
+      <c r="G67" s="220"/>
+      <c r="H67" s="220"/>
+      <c r="I67" s="220"/>
+      <c r="J67" s="220"/>
+      <c r="K67" s="220"/>
+      <c r="L67" s="220"/>
+      <c r="M67" s="220"/>
+      <c r="N67" s="220"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -13849,56 +13849,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="238" t="s">
+      <c r="B74" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="240" t="s">
+      <c r="C74" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="242" t="s">
+      <c r="D74" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="240" t="s">
+      <c r="E74" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="240" t="s">
+      <c r="F74" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="240" t="s">
+      <c r="G74" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="240" t="s">
+      <c r="H74" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="244" t="s">
+      <c r="I74" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="240" t="s">
+      <c r="J74" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="240" t="s">
+      <c r="K74" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="240" t="s">
+      <c r="L74" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="246" t="s">
+      <c r="M74" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="247"/>
+      <c r="N74" s="266"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="239"/>
-      <c r="C75" s="241"/>
-      <c r="D75" s="243"/>
-      <c r="E75" s="241"/>
-      <c r="F75" s="241"/>
-      <c r="G75" s="241"/>
-      <c r="H75" s="241"/>
-      <c r="I75" s="245"/>
-      <c r="J75" s="241"/>
-      <c r="K75" s="241"/>
-      <c r="L75" s="241"/>
+      <c r="B75" s="274"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="276"/>
+      <c r="E75" s="264"/>
+      <c r="F75" s="264"/>
+      <c r="G75" s="264"/>
+      <c r="H75" s="264"/>
+      <c r="I75" s="262"/>
+      <c r="J75" s="264"/>
+      <c r="K75" s="264"/>
+      <c r="L75" s="264"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -13907,24 +13907,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="254" t="s">
+      <c r="B76" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="255"/>
-      <c r="D76" s="255"/>
-      <c r="E76" s="255"/>
-      <c r="F76" s="255"/>
-      <c r="G76" s="255"/>
-      <c r="H76" s="256"/>
+      <c r="C76" s="278"/>
+      <c r="D76" s="278"/>
+      <c r="E76" s="278"/>
+      <c r="F76" s="278"/>
+      <c r="G76" s="278"/>
+      <c r="H76" s="279"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="257"/>
-      <c r="K76" s="258"/>
-      <c r="L76" s="258"/>
-      <c r="M76" s="258"/>
-      <c r="N76" s="259"/>
+      <c r="J76" s="280"/>
+      <c r="K76" s="281"/>
+      <c r="L76" s="281"/>
+      <c r="M76" s="281"/>
+      <c r="N76" s="282"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -14367,44 +14367,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="248" t="s">
+      <c r="B97" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="249"/>
-      <c r="D97" s="249"/>
-      <c r="E97" s="249"/>
-      <c r="F97" s="249"/>
-      <c r="G97" s="249"/>
-      <c r="H97" s="250"/>
+      <c r="C97" s="268"/>
+      <c r="D97" s="268"/>
+      <c r="E97" s="268"/>
+      <c r="F97" s="268"/>
+      <c r="G97" s="268"/>
+      <c r="H97" s="269"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="251"/>
-      <c r="K97" s="252"/>
-      <c r="L97" s="252"/>
-      <c r="M97" s="252"/>
-      <c r="N97" s="253"/>
+      <c r="J97" s="270"/>
+      <c r="K97" s="271"/>
+      <c r="L97" s="271"/>
+      <c r="M97" s="271"/>
+      <c r="N97" s="272"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="221" t="s">
+      <c r="B101" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="221"/>
-      <c r="D101" s="221"/>
-      <c r="E101" s="221"/>
-      <c r="F101" s="221"/>
-      <c r="G101" s="221"/>
-      <c r="H101" s="221"/>
-      <c r="I101" s="221"/>
-      <c r="J101" s="221"/>
-      <c r="K101" s="221"/>
-      <c r="L101" s="221"/>
-      <c r="M101" s="221"/>
-      <c r="N101" s="221"/>
+      <c r="C101" s="220"/>
+      <c r="D101" s="220"/>
+      <c r="E101" s="220"/>
+      <c r="F101" s="220"/>
+      <c r="G101" s="220"/>
+      <c r="H101" s="220"/>
+      <c r="I101" s="220"/>
+      <c r="J101" s="220"/>
+      <c r="K101" s="220"/>
+      <c r="L101" s="220"/>
+      <c r="M101" s="220"/>
+      <c r="N101" s="220"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -14514,56 +14514,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="238" t="s">
+      <c r="B108" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="240" t="s">
+      <c r="C108" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="242" t="s">
+      <c r="D108" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="240" t="s">
+      <c r="E108" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="240" t="s">
+      <c r="F108" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="240" t="s">
+      <c r="G108" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="240" t="s">
+      <c r="H108" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="244" t="s">
+      <c r="I108" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="240" t="s">
+      <c r="J108" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="240" t="s">
+      <c r="K108" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="240" t="s">
+      <c r="L108" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="246" t="s">
+      <c r="M108" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="247"/>
+      <c r="N108" s="266"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="239"/>
-      <c r="C109" s="241"/>
-      <c r="D109" s="243"/>
-      <c r="E109" s="241"/>
-      <c r="F109" s="241"/>
-      <c r="G109" s="241"/>
-      <c r="H109" s="241"/>
-      <c r="I109" s="245"/>
-      <c r="J109" s="241"/>
-      <c r="K109" s="241"/>
-      <c r="L109" s="241"/>
+      <c r="B109" s="274"/>
+      <c r="C109" s="264"/>
+      <c r="D109" s="276"/>
+      <c r="E109" s="264"/>
+      <c r="F109" s="264"/>
+      <c r="G109" s="264"/>
+      <c r="H109" s="264"/>
+      <c r="I109" s="262"/>
+      <c r="J109" s="264"/>
+      <c r="K109" s="264"/>
+      <c r="L109" s="264"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -14572,24 +14572,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="254" t="s">
+      <c r="B110" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="255"/>
-      <c r="D110" s="255"/>
-      <c r="E110" s="255"/>
-      <c r="F110" s="255"/>
-      <c r="G110" s="255"/>
-      <c r="H110" s="256"/>
+      <c r="C110" s="278"/>
+      <c r="D110" s="278"/>
+      <c r="E110" s="278"/>
+      <c r="F110" s="278"/>
+      <c r="G110" s="278"/>
+      <c r="H110" s="279"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="257"/>
-      <c r="K110" s="258"/>
-      <c r="L110" s="258"/>
-      <c r="M110" s="258"/>
-      <c r="N110" s="259"/>
+      <c r="J110" s="280"/>
+      <c r="K110" s="281"/>
+      <c r="L110" s="281"/>
+      <c r="M110" s="281"/>
+      <c r="N110" s="282"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -14959,44 +14959,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="248" t="s">
+      <c r="B130" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="249"/>
-      <c r="D130" s="249"/>
-      <c r="E130" s="249"/>
-      <c r="F130" s="249"/>
-      <c r="G130" s="249"/>
-      <c r="H130" s="250"/>
+      <c r="C130" s="268"/>
+      <c r="D130" s="268"/>
+      <c r="E130" s="268"/>
+      <c r="F130" s="268"/>
+      <c r="G130" s="268"/>
+      <c r="H130" s="269"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="251"/>
-      <c r="K130" s="252"/>
-      <c r="L130" s="252"/>
-      <c r="M130" s="252"/>
-      <c r="N130" s="253"/>
+      <c r="J130" s="270"/>
+      <c r="K130" s="271"/>
+      <c r="L130" s="271"/>
+      <c r="M130" s="271"/>
+      <c r="N130" s="272"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="221" t="s">
+      <c r="B134" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="221"/>
-      <c r="D134" s="221"/>
-      <c r="E134" s="221"/>
-      <c r="F134" s="221"/>
-      <c r="G134" s="221"/>
-      <c r="H134" s="221"/>
-      <c r="I134" s="221"/>
-      <c r="J134" s="221"/>
-      <c r="K134" s="221"/>
-      <c r="L134" s="221"/>
-      <c r="M134" s="221"/>
-      <c r="N134" s="221"/>
+      <c r="C134" s="220"/>
+      <c r="D134" s="220"/>
+      <c r="E134" s="220"/>
+      <c r="F134" s="220"/>
+      <c r="G134" s="220"/>
+      <c r="H134" s="220"/>
+      <c r="I134" s="220"/>
+      <c r="J134" s="220"/>
+      <c r="K134" s="220"/>
+      <c r="L134" s="220"/>
+      <c r="M134" s="220"/>
+      <c r="N134" s="220"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -15106,56 +15106,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="238" t="s">
+      <c r="B141" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="240" t="s">
+      <c r="C141" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="242" t="s">
+      <c r="D141" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="240" t="s">
+      <c r="E141" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="240" t="s">
+      <c r="F141" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="240" t="s">
+      <c r="G141" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="240" t="s">
+      <c r="H141" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="244" t="s">
+      <c r="I141" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="240" t="s">
+      <c r="J141" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="240" t="s">
+      <c r="K141" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="240" t="s">
+      <c r="L141" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="246" t="s">
+      <c r="M141" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="247"/>
+      <c r="N141" s="266"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="239"/>
-      <c r="C142" s="241"/>
-      <c r="D142" s="243"/>
-      <c r="E142" s="241"/>
-      <c r="F142" s="241"/>
-      <c r="G142" s="241"/>
-      <c r="H142" s="241"/>
-      <c r="I142" s="245"/>
-      <c r="J142" s="241"/>
-      <c r="K142" s="241"/>
-      <c r="L142" s="241"/>
+      <c r="B142" s="274"/>
+      <c r="C142" s="264"/>
+      <c r="D142" s="276"/>
+      <c r="E142" s="264"/>
+      <c r="F142" s="264"/>
+      <c r="G142" s="264"/>
+      <c r="H142" s="264"/>
+      <c r="I142" s="262"/>
+      <c r="J142" s="264"/>
+      <c r="K142" s="264"/>
+      <c r="L142" s="264"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -15164,24 +15164,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="254" t="s">
+      <c r="B143" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="255"/>
-      <c r="D143" s="255"/>
-      <c r="E143" s="255"/>
-      <c r="F143" s="255"/>
-      <c r="G143" s="255"/>
-      <c r="H143" s="256"/>
+      <c r="C143" s="278"/>
+      <c r="D143" s="278"/>
+      <c r="E143" s="278"/>
+      <c r="F143" s="278"/>
+      <c r="G143" s="278"/>
+      <c r="H143" s="279"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="257"/>
-      <c r="K143" s="258"/>
-      <c r="L143" s="258"/>
-      <c r="M143" s="258"/>
-      <c r="N143" s="259"/>
+      <c r="J143" s="280"/>
+      <c r="K143" s="281"/>
+      <c r="L143" s="281"/>
+      <c r="M143" s="281"/>
+      <c r="N143" s="282"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -15507,44 +15507,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="248" t="s">
+      <c r="B161" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="249"/>
-      <c r="D161" s="249"/>
-      <c r="E161" s="249"/>
-      <c r="F161" s="249"/>
-      <c r="G161" s="249"/>
-      <c r="H161" s="250"/>
+      <c r="C161" s="268"/>
+      <c r="D161" s="268"/>
+      <c r="E161" s="268"/>
+      <c r="F161" s="268"/>
+      <c r="G161" s="268"/>
+      <c r="H161" s="269"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="251"/>
-      <c r="K161" s="252"/>
-      <c r="L161" s="252"/>
-      <c r="M161" s="252"/>
-      <c r="N161" s="253"/>
+      <c r="J161" s="270"/>
+      <c r="K161" s="271"/>
+      <c r="L161" s="271"/>
+      <c r="M161" s="271"/>
+      <c r="N161" s="272"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="221" t="s">
+      <c r="B165" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="221"/>
-      <c r="D165" s="221"/>
-      <c r="E165" s="221"/>
-      <c r="F165" s="221"/>
-      <c r="G165" s="221"/>
-      <c r="H165" s="221"/>
-      <c r="I165" s="221"/>
-      <c r="J165" s="221"/>
-      <c r="K165" s="221"/>
-      <c r="L165" s="221"/>
-      <c r="M165" s="221"/>
-      <c r="N165" s="221"/>
+      <c r="C165" s="220"/>
+      <c r="D165" s="220"/>
+      <c r="E165" s="220"/>
+      <c r="F165" s="220"/>
+      <c r="G165" s="220"/>
+      <c r="H165" s="220"/>
+      <c r="I165" s="220"/>
+      <c r="J165" s="220"/>
+      <c r="K165" s="220"/>
+      <c r="L165" s="220"/>
+      <c r="M165" s="220"/>
+      <c r="N165" s="220"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -15654,56 +15654,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="238" t="s">
+      <c r="B172" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="240" t="s">
+      <c r="C172" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="242" t="s">
+      <c r="D172" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="240" t="s">
+      <c r="E172" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="240" t="s">
+      <c r="F172" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="240" t="s">
+      <c r="G172" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="240" t="s">
+      <c r="H172" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="244" t="s">
+      <c r="I172" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="240" t="s">
+      <c r="J172" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="240" t="s">
+      <c r="K172" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="240" t="s">
+      <c r="L172" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="246" t="s">
+      <c r="M172" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="247"/>
+      <c r="N172" s="266"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="239"/>
-      <c r="C173" s="241"/>
-      <c r="D173" s="243"/>
-      <c r="E173" s="241"/>
-      <c r="F173" s="241"/>
-      <c r="G173" s="241"/>
-      <c r="H173" s="241"/>
-      <c r="I173" s="245"/>
-      <c r="J173" s="241"/>
-      <c r="K173" s="241"/>
-      <c r="L173" s="241"/>
+      <c r="B173" s="274"/>
+      <c r="C173" s="264"/>
+      <c r="D173" s="276"/>
+      <c r="E173" s="264"/>
+      <c r="F173" s="264"/>
+      <c r="G173" s="264"/>
+      <c r="H173" s="264"/>
+      <c r="I173" s="262"/>
+      <c r="J173" s="264"/>
+      <c r="K173" s="264"/>
+      <c r="L173" s="264"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -15712,24 +15712,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="254" t="s">
+      <c r="B174" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="255"/>
-      <c r="D174" s="255"/>
-      <c r="E174" s="255"/>
-      <c r="F174" s="255"/>
-      <c r="G174" s="255"/>
-      <c r="H174" s="256"/>
+      <c r="C174" s="278"/>
+      <c r="D174" s="278"/>
+      <c r="E174" s="278"/>
+      <c r="F174" s="278"/>
+      <c r="G174" s="278"/>
+      <c r="H174" s="279"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="257"/>
-      <c r="K174" s="258"/>
-      <c r="L174" s="258"/>
-      <c r="M174" s="258"/>
-      <c r="N174" s="259"/>
+      <c r="J174" s="280"/>
+      <c r="K174" s="281"/>
+      <c r="L174" s="281"/>
+      <c r="M174" s="281"/>
+      <c r="N174" s="282"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -15795,24 +15795,24 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="254" t="s">
+      <c r="B178" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="255"/>
-      <c r="D178" s="255"/>
-      <c r="E178" s="255"/>
-      <c r="F178" s="255"/>
-      <c r="G178" s="255"/>
-      <c r="H178" s="256"/>
+      <c r="C178" s="278"/>
+      <c r="D178" s="278"/>
+      <c r="E178" s="278"/>
+      <c r="F178" s="278"/>
+      <c r="G178" s="278"/>
+      <c r="H178" s="279"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="257"/>
-      <c r="K178" s="258"/>
-      <c r="L178" s="258"/>
-      <c r="M178" s="258"/>
-      <c r="N178" s="259"/>
+      <c r="J178" s="280"/>
+      <c r="K178" s="281"/>
+      <c r="L178" s="281"/>
+      <c r="M178" s="281"/>
+      <c r="N178" s="282"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15836,6 +15836,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -15853,90 +15937,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -15953,8 +15953,8 @@
   </sheetPr>
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="C201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16922,40 +16922,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -16974,22 +16974,22 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -17106,15 +17106,15 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="180" t="s">
@@ -17123,20 +17123,20 @@
       <c r="G12" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="216" t="s">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="244"/>
+      <c r="M12" s="244"/>
+      <c r="N12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -17146,7 +17146,7 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
+      <c r="E13" s="234"/>
       <c r="F13" s="181"/>
       <c r="G13" s="182"/>
       <c r="H13" s="134" t="s">
@@ -17167,7 +17167,7 @@
       <c r="M13" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="228"/>
+      <c r="N13" s="245"/>
       <c r="O13" s="179" t="s">
         <v>614</v>
       </c>
@@ -26596,14 +26596,14 @@
       </c>
     </row>
     <row r="226" spans="1:14" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="208" t="s">
+      <c r="A226" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B226" s="209"/>
-      <c r="C226" s="209"/>
-      <c r="D226" s="209"/>
-      <c r="E226" s="209"/>
-      <c r="F226" s="210"/>
+      <c r="B226" s="227"/>
+      <c r="C226" s="227"/>
+      <c r="D226" s="227"/>
+      <c r="E226" s="227"/>
+      <c r="F226" s="228"/>
       <c r="G226" s="172">
         <f>SUM(G14:G225)</f>
         <v>910085.01000000024</v>
@@ -26771,8 +26771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26796,34 +26796,34 @@
       <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26839,19 +26839,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26884,49 +26884,49 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="261"/>
+      <c r="B8" s="251"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="262" t="s">
+      <c r="D8" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="261"/>
-      <c r="C9" s="263" t="s">
+      <c r="B9" s="251"/>
+      <c r="C9" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="262" t="s">
+      <c r="D9" s="252" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="264"/>
-      <c r="C10" s="263" t="s">
+      <c r="B10" s="253"/>
+      <c r="C10" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -26956,32 +26956,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="281" t="s">
+      <c r="F12" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="216" t="s">
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26991,9 +26991,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="217"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="134" t="s">
         <v>206</v>
       </c>
@@ -27003,7 +27003,7 @@
       <c r="J13" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="212"/>
+      <c r="K13" s="225"/>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="150">
@@ -27321,74 +27321,74 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="229" t="s">
+      <c r="A23" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="231"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="248"/>
       <c r="G23" s="184">
         <f>SUM(G14:G22)</f>
         <v>15930</v>
       </c>
       <c r="H23" s="184">
-        <f t="shared" ref="H23:J23" si="0">SUM(H14:H22)</f>
+        <f>SUM(H14:H22)</f>
         <v>9810</v>
       </c>
       <c r="I23" s="184">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H23:J23" si="0">SUM(I14:I22)</f>
         <v>0</v>
       </c>
       <c r="J23" s="184">
-        <f t="shared" si="0"/>
+        <f>SUM(J14:J22)</f>
         <v>6120</v>
       </c>
       <c r="K23" s="121"/>
     </row>
-    <row r="24" spans="1:11" s="268" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="265"/>
-      <c r="B24" s="265"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="266"/>
-      <c r="K24" s="267"/>
+    <row r="24" spans="1:11" s="207" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="204"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="206"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="203" t="s">
+      <c r="A25" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="229"/>
     </row>
     <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -27404,19 +27404,19 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="221" t="s">
+      <c r="A28" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="221"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -27451,49 +27451,49 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="261" t="s">
+      <c r="A31" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="261"/>
+      <c r="B31" s="251"/>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="262" t="s">
+      <c r="D31" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="E31" s="262"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="262"/>
-      <c r="I31" s="262"/>
-      <c r="J31" s="262"/>
-      <c r="K31" s="262"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="252"/>
     </row>
     <row r="32" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="261" t="s">
+      <c r="A32" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="261"/>
-      <c r="C32" s="263" t="s">
+      <c r="B32" s="251"/>
+      <c r="C32" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="262" t="s">
+      <c r="D32" s="252" t="s">
         <v>624</v>
       </c>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="262"/>
-      <c r="I32" s="262"/>
-      <c r="J32" s="262"/>
-      <c r="K32" s="262"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="252"/>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="264" t="s">
+      <c r="A33" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="263" t="s">
+      <c r="B33" s="253"/>
+      <c r="C33" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -27523,32 +27523,32 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="211" t="s">
+      <c r="A35" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="213"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="214" t="s">
+      <c r="C35" s="232"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="281" t="s">
+      <c r="F35" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="216" t="s">
+      <c r="G35" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="216" t="s">
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
+      <c r="A36" s="225"/>
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
@@ -27558,9 +27558,9 @@
       <c r="D36" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="217"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="212"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="255"/>
+      <c r="G36" s="225"/>
       <c r="H36" s="134" t="s">
         <v>206</v>
       </c>
@@ -27570,31 +27570,31 @@
       <c r="J36" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="212"/>
+      <c r="K36" s="225"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="229" t="s">
+      <c r="A37" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="230"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
+      <c r="B37" s="247"/>
+      <c r="C37" s="247"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="247"/>
+      <c r="F37" s="248"/>
       <c r="G37" s="184">
         <f>G23</f>
         <v>15930</v>
       </c>
       <c r="H37" s="184">
-        <f t="shared" ref="H37:J37" si="1">H23</f>
+        <f>H23</f>
         <v>9810</v>
       </c>
       <c r="I37" s="184">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H37:J37" si="1">I23</f>
         <v>0</v>
       </c>
       <c r="J37" s="184">
-        <f t="shared" si="1"/>
+        <f>J23</f>
         <v>6120</v>
       </c>
       <c r="K37" s="121"/>
@@ -27997,7 +27997,7 @@
       <c r="F49" s="170">
         <v>4544</v>
       </c>
-      <c r="G49" s="277">
+      <c r="G49" s="216">
         <v>3237</v>
       </c>
       <c r="H49" s="136" t="s">
@@ -28014,74 +28014,74 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="208" t="s">
+      <c r="A50" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="209"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="209"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="278">
+      <c r="B50" s="227"/>
+      <c r="C50" s="227"/>
+      <c r="D50" s="227"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="217">
         <f>SUM(G37:G49)</f>
         <v>31377</v>
       </c>
-      <c r="H50" s="278">
-        <f t="shared" ref="H50:J50" si="2">SUM(H37:H49)</f>
+      <c r="H50" s="217">
+        <f>SUM(H37:H49)</f>
         <v>19620</v>
       </c>
-      <c r="I50" s="278">
-        <f t="shared" si="2"/>
+      <c r="I50" s="217">
+        <f>SUM(I37:I49)</f>
         <v>2400</v>
       </c>
-      <c r="J50" s="278">
-        <f t="shared" si="2"/>
+      <c r="J50" s="217">
+        <f>SUM(J37:J49)</f>
         <v>9357</v>
       </c>
       <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="269"/>
-      <c r="B51" s="270"/>
-      <c r="C51" s="271"/>
-      <c r="D51" s="272"/>
-      <c r="E51" s="273"/>
-      <c r="F51" s="274"/>
-      <c r="G51" s="275"/>
-      <c r="H51" s="275"/>
-      <c r="I51" s="275"/>
-      <c r="J51" s="275"/>
-      <c r="K51" s="276"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="209"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="214"/>
+      <c r="H51" s="214"/>
+      <c r="I51" s="214"/>
+      <c r="J51" s="214"/>
+      <c r="K51" s="215"/>
     </row>
     <row r="52" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="203" t="s">
+      <c r="A52" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203"/>
-      <c r="K52" s="203"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="229"/>
+      <c r="K52" s="229"/>
     </row>
     <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A53" s="204" t="s">
+      <c r="A53" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="204"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
-      <c r="K53" s="204"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="230"/>
+      <c r="D53" s="240"/>
+      <c r="E53" s="230"/>
+      <c r="F53" s="230"/>
+      <c r="G53" s="230"/>
+      <c r="H53" s="230"/>
+      <c r="I53" s="230"/>
+      <c r="J53" s="230"/>
+      <c r="K53" s="230"/>
     </row>
     <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -28097,19 +28097,19 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="221" t="s">
+      <c r="A55" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="221"/>
-      <c r="C55" s="221"/>
-      <c r="D55" s="224"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="221"/>
-      <c r="H55" s="221"/>
-      <c r="I55" s="221"/>
-      <c r="J55" s="221"/>
-      <c r="K55" s="221"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="241"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+      <c r="K55" s="220"/>
     </row>
     <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -28144,49 +28144,49 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="261" t="s">
+      <c r="A58" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="261"/>
+      <c r="B58" s="251"/>
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="262" t="s">
+      <c r="D58" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="E58" s="262"/>
-      <c r="F58" s="262"/>
-      <c r="G58" s="262"/>
-      <c r="H58" s="262"/>
-      <c r="I58" s="262"/>
-      <c r="J58" s="262"/>
-      <c r="K58" s="262"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="252"/>
+      <c r="G58" s="252"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="252"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="252"/>
     </row>
     <row r="59" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="261" t="s">
+      <c r="A59" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="261"/>
-      <c r="C59" s="263" t="s">
+      <c r="B59" s="251"/>
+      <c r="C59" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="262" t="s">
+      <c r="D59" s="252" t="s">
         <v>624</v>
       </c>
-      <c r="E59" s="262"/>
-      <c r="F59" s="262"/>
-      <c r="G59" s="262"/>
-      <c r="H59" s="262"/>
-      <c r="I59" s="262"/>
-      <c r="J59" s="262"/>
-      <c r="K59" s="262"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
+      <c r="H59" s="252"/>
+      <c r="I59" s="252"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="252"/>
     </row>
     <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="264" t="s">
+      <c r="A60" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="264"/>
-      <c r="C60" s="263" t="s">
+      <c r="B60" s="253"/>
+      <c r="C60" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -28216,32 +28216,32 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="211" t="s">
+      <c r="A62" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="213" t="s">
+      <c r="B62" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="213"/>
-      <c r="D62" s="225"/>
-      <c r="E62" s="214" t="s">
+      <c r="C62" s="232"/>
+      <c r="D62" s="242"/>
+      <c r="E62" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="281" t="s">
+      <c r="F62" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="216" t="s">
+      <c r="G62" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="227"/>
-      <c r="I62" s="227"/>
-      <c r="J62" s="227"/>
-      <c r="K62" s="216" t="s">
+      <c r="H62" s="244"/>
+      <c r="I62" s="244"/>
+      <c r="J62" s="244"/>
+      <c r="K62" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="212"/>
+      <c r="A63" s="225"/>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
@@ -28251,9 +28251,9 @@
       <c r="D63" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="217"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="212"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="255"/>
+      <c r="G63" s="225"/>
       <c r="H63" s="134" t="s">
         <v>206</v>
       </c>
@@ -28263,31 +28263,31 @@
       <c r="J63" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K63" s="212"/>
+      <c r="K63" s="225"/>
     </row>
     <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="229" t="s">
+      <c r="A64" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="230"/>
-      <c r="C64" s="230"/>
-      <c r="D64" s="230"/>
-      <c r="E64" s="230"/>
-      <c r="F64" s="231"/>
+      <c r="B64" s="247"/>
+      <c r="C64" s="247"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="247"/>
+      <c r="F64" s="248"/>
       <c r="G64" s="184">
         <f>G50</f>
         <v>31377</v>
       </c>
       <c r="H64" s="184">
-        <f t="shared" ref="H64:J64" si="3">H50</f>
+        <f t="shared" ref="H64:J64" si="2">H50</f>
         <v>19620</v>
       </c>
       <c r="I64" s="184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="J64" s="184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9357</v>
       </c>
       <c r="K64" s="121"/>
@@ -28657,7 +28657,7 @@
       <c r="F75" s="170">
         <v>7150</v>
       </c>
-      <c r="G75" s="277">
+      <c r="G75" s="216">
         <v>410.9</v>
       </c>
       <c r="H75" s="136">
@@ -28674,87 +28674,87 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="208" t="s">
+      <c r="A76" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="209"/>
-      <c r="C76" s="209"/>
-      <c r="D76" s="209"/>
-      <c r="E76" s="209"/>
-      <c r="F76" s="210"/>
-      <c r="G76" s="278">
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="228"/>
+      <c r="G76" s="217">
         <f>SUM(G64:G75)</f>
         <v>41306.600000000006</v>
       </c>
-      <c r="H76" s="278">
-        <f t="shared" ref="H76:J76" si="4">SUM(H64:H75)</f>
+      <c r="H76" s="217">
+        <f t="shared" ref="H76:J76" si="3">SUM(H64:H75)</f>
         <v>28340</v>
       </c>
-      <c r="I76" s="278">
-        <f t="shared" si="4"/>
+      <c r="I76" s="217">
+        <f t="shared" si="3"/>
         <v>3609.6</v>
       </c>
-      <c r="J76" s="278">
-        <f t="shared" si="4"/>
+      <c r="J76" s="217">
+        <f t="shared" si="3"/>
         <v>9357</v>
       </c>
       <c r="K76" s="19"/>
     </row>
     <row r="77" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="269"/>
-      <c r="B77" s="270"/>
-      <c r="C77" s="271"/>
-      <c r="D77" s="272"/>
-      <c r="E77" s="272"/>
-      <c r="F77" s="274"/>
-      <c r="G77" s="275"/>
-      <c r="H77" s="275"/>
-      <c r="I77" s="275"/>
-      <c r="J77" s="275"/>
-      <c r="K77" s="276"/>
+      <c r="A77" s="208"/>
+      <c r="B77" s="209"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="211"/>
+      <c r="E77" s="211"/>
+      <c r="F77" s="213"/>
+      <c r="G77" s="214"/>
+      <c r="H77" s="214"/>
+      <c r="I77" s="214"/>
+      <c r="J77" s="214"/>
+      <c r="K77" s="215"/>
     </row>
     <row r="78" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="269"/>
-      <c r="B78" s="270"/>
-      <c r="C78" s="271"/>
-      <c r="D78" s="272"/>
-      <c r="E78" s="272"/>
-      <c r="F78" s="274"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
-      <c r="I78" s="275"/>
-      <c r="J78" s="275"/>
-      <c r="K78" s="276"/>
+      <c r="A78" s="208"/>
+      <c r="B78" s="209"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
+      <c r="F78" s="213"/>
+      <c r="G78" s="214"/>
+      <c r="H78" s="214"/>
+      <c r="I78" s="214"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="215"/>
     </row>
     <row r="79" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="203" t="s">
+      <c r="A79" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="203"/>
-      <c r="C79" s="203"/>
-      <c r="D79" s="222"/>
-      <c r="E79" s="203"/>
-      <c r="F79" s="203"/>
-      <c r="G79" s="203"/>
-      <c r="H79" s="203"/>
-      <c r="I79" s="203"/>
-      <c r="J79" s="203"/>
-      <c r="K79" s="203"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="239"/>
+      <c r="E79" s="229"/>
+      <c r="F79" s="229"/>
+      <c r="G79" s="229"/>
+      <c r="H79" s="229"/>
+      <c r="I79" s="229"/>
+      <c r="J79" s="229"/>
+      <c r="K79" s="229"/>
     </row>
     <row r="80" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A80" s="204" t="s">
+      <c r="A80" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="204"/>
-      <c r="C80" s="204"/>
-      <c r="D80" s="223"/>
-      <c r="E80" s="204"/>
-      <c r="F80" s="204"/>
-      <c r="G80" s="204"/>
-      <c r="H80" s="204"/>
-      <c r="I80" s="204"/>
-      <c r="J80" s="204"/>
-      <c r="K80" s="204"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="230"/>
+      <c r="D80" s="240"/>
+      <c r="E80" s="230"/>
+      <c r="F80" s="230"/>
+      <c r="G80" s="230"/>
+      <c r="H80" s="230"/>
+      <c r="I80" s="230"/>
+      <c r="J80" s="230"/>
+      <c r="K80" s="230"/>
     </row>
     <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -28770,19 +28770,19 @@
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="221" t="s">
+      <c r="A82" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="221"/>
-      <c r="C82" s="221"/>
-      <c r="D82" s="224"/>
-      <c r="E82" s="221"/>
-      <c r="F82" s="221"/>
-      <c r="G82" s="221"/>
-      <c r="H82" s="221"/>
-      <c r="I82" s="221"/>
-      <c r="J82" s="221"/>
-      <c r="K82" s="221"/>
+      <c r="B82" s="220"/>
+      <c r="C82" s="220"/>
+      <c r="D82" s="241"/>
+      <c r="E82" s="220"/>
+      <c r="F82" s="220"/>
+      <c r="G82" s="220"/>
+      <c r="H82" s="220"/>
+      <c r="I82" s="220"/>
+      <c r="J82" s="220"/>
+      <c r="K82" s="220"/>
     </row>
     <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -28817,49 +28817,49 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="261" t="s">
+      <c r="A85" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="261"/>
+      <c r="B85" s="251"/>
       <c r="C85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="262" t="s">
+      <c r="D85" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="E85" s="262"/>
-      <c r="F85" s="262"/>
-      <c r="G85" s="262"/>
-      <c r="H85" s="262"/>
-      <c r="I85" s="262"/>
-      <c r="J85" s="262"/>
-      <c r="K85" s="262"/>
+      <c r="E85" s="252"/>
+      <c r="F85" s="252"/>
+      <c r="G85" s="252"/>
+      <c r="H85" s="252"/>
+      <c r="I85" s="252"/>
+      <c r="J85" s="252"/>
+      <c r="K85" s="252"/>
     </row>
     <row r="86" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="261" t="s">
+      <c r="A86" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="261"/>
-      <c r="C86" s="263" t="s">
+      <c r="B86" s="251"/>
+      <c r="C86" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="262" t="s">
+      <c r="D86" s="252" t="s">
         <v>624</v>
       </c>
-      <c r="E86" s="262"/>
-      <c r="F86" s="262"/>
-      <c r="G86" s="262"/>
-      <c r="H86" s="262"/>
-      <c r="I86" s="262"/>
-      <c r="J86" s="262"/>
-      <c r="K86" s="262"/>
+      <c r="E86" s="252"/>
+      <c r="F86" s="252"/>
+      <c r="G86" s="252"/>
+      <c r="H86" s="252"/>
+      <c r="I86" s="252"/>
+      <c r="J86" s="252"/>
+      <c r="K86" s="252"/>
     </row>
     <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="264" t="s">
+      <c r="A87" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="264"/>
-      <c r="C87" s="263" t="s">
+      <c r="B87" s="253"/>
+      <c r="C87" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -28889,32 +28889,32 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="211" t="s">
+      <c r="A89" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="213" t="s">
+      <c r="B89" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="213"/>
-      <c r="D89" s="225"/>
-      <c r="E89" s="214" t="s">
+      <c r="C89" s="232"/>
+      <c r="D89" s="242"/>
+      <c r="E89" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="281" t="s">
+      <c r="F89" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="216" t="s">
+      <c r="G89" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="227"/>
-      <c r="I89" s="227"/>
-      <c r="J89" s="227"/>
-      <c r="K89" s="216" t="s">
+      <c r="H89" s="244"/>
+      <c r="I89" s="244"/>
+      <c r="J89" s="244"/>
+      <c r="K89" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="212"/>
+      <c r="A90" s="225"/>
       <c r="B90" s="2" t="s">
         <v>14</v>
       </c>
@@ -28924,9 +28924,9 @@
       <c r="D90" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="217"/>
-      <c r="F90" s="282"/>
-      <c r="G90" s="212"/>
+      <c r="E90" s="235"/>
+      <c r="F90" s="255"/>
+      <c r="G90" s="225"/>
       <c r="H90" s="134" t="s">
         <v>206</v>
       </c>
@@ -28936,31 +28936,31 @@
       <c r="J90" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K90" s="212"/>
+      <c r="K90" s="225"/>
     </row>
     <row r="91" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="229" t="s">
+      <c r="A91" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="230"/>
-      <c r="C91" s="230"/>
-      <c r="D91" s="230"/>
-      <c r="E91" s="230"/>
-      <c r="F91" s="231"/>
+      <c r="B91" s="247"/>
+      <c r="C91" s="247"/>
+      <c r="D91" s="247"/>
+      <c r="E91" s="247"/>
+      <c r="F91" s="248"/>
       <c r="G91" s="184">
         <f>G76</f>
         <v>41306.600000000006</v>
       </c>
       <c r="H91" s="184">
-        <f t="shared" ref="H91:J91" si="5">H76</f>
+        <f t="shared" ref="H91:J91" si="4">H76</f>
         <v>28340</v>
       </c>
       <c r="I91" s="184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3609.6</v>
       </c>
       <c r="J91" s="184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9357</v>
       </c>
       <c r="K91" s="121"/>
@@ -29292,74 +29292,74 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="229" t="s">
+      <c r="A102" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="230"/>
-      <c r="C102" s="230"/>
-      <c r="D102" s="230"/>
-      <c r="E102" s="230"/>
-      <c r="F102" s="231"/>
+      <c r="B102" s="247"/>
+      <c r="C102" s="247"/>
+      <c r="D102" s="247"/>
+      <c r="E102" s="247"/>
+      <c r="F102" s="248"/>
       <c r="G102" s="184">
         <f>SUM(G91:G101)</f>
         <v>44797.140000000007</v>
       </c>
       <c r="H102" s="184">
-        <f t="shared" ref="H102:J102" si="6">SUM(H91:H101)</f>
+        <f t="shared" ref="H102:J102" si="5">SUM(H91:H101)</f>
         <v>28340</v>
       </c>
       <c r="I102" s="184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6384.1400000000012</v>
       </c>
       <c r="J102" s="184">
-        <f t="shared" si="6"/>
+        <f>SUM(J91:J101)</f>
         <v>10073</v>
       </c>
       <c r="K102" s="121"/>
     </row>
     <row r="103" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="269"/>
-      <c r="B103" s="270"/>
-      <c r="C103" s="271"/>
-      <c r="D103" s="272"/>
-      <c r="E103" s="272"/>
-      <c r="F103" s="274"/>
-      <c r="G103" s="275"/>
-      <c r="H103" s="275"/>
-      <c r="I103" s="279"/>
-      <c r="J103" s="275"/>
-      <c r="K103" s="276"/>
+      <c r="A103" s="208"/>
+      <c r="B103" s="209"/>
+      <c r="C103" s="210"/>
+      <c r="D103" s="211"/>
+      <c r="E103" s="211"/>
+      <c r="F103" s="213"/>
+      <c r="G103" s="214"/>
+      <c r="H103" s="214"/>
+      <c r="I103" s="218"/>
+      <c r="J103" s="214"/>
+      <c r="K103" s="215"/>
     </row>
     <row r="104" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="203" t="s">
+      <c r="A104" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="203"/>
-      <c r="C104" s="203"/>
-      <c r="D104" s="222"/>
-      <c r="E104" s="203"/>
-      <c r="F104" s="203"/>
-      <c r="G104" s="203"/>
-      <c r="H104" s="203"/>
-      <c r="I104" s="203"/>
-      <c r="J104" s="203"/>
-      <c r="K104" s="203"/>
+      <c r="B104" s="229"/>
+      <c r="C104" s="229"/>
+      <c r="D104" s="239"/>
+      <c r="E104" s="229"/>
+      <c r="F104" s="229"/>
+      <c r="G104" s="229"/>
+      <c r="H104" s="229"/>
+      <c r="I104" s="229"/>
+      <c r="J104" s="229"/>
+      <c r="K104" s="229"/>
     </row>
     <row r="105" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A105" s="204" t="s">
+      <c r="A105" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="204"/>
-      <c r="C105" s="204"/>
-      <c r="D105" s="223"/>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
-      <c r="I105" s="204"/>
-      <c r="J105" s="204"/>
-      <c r="K105" s="204"/>
+      <c r="B105" s="230"/>
+      <c r="C105" s="230"/>
+      <c r="D105" s="240"/>
+      <c r="E105" s="230"/>
+      <c r="F105" s="230"/>
+      <c r="G105" s="230"/>
+      <c r="H105" s="230"/>
+      <c r="I105" s="230"/>
+      <c r="J105" s="230"/>
+      <c r="K105" s="230"/>
     </row>
     <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -29375,19 +29375,19 @@
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="221" t="s">
+      <c r="A107" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="221"/>
-      <c r="C107" s="221"/>
-      <c r="D107" s="224"/>
-      <c r="E107" s="221"/>
-      <c r="F107" s="221"/>
-      <c r="G107" s="221"/>
-      <c r="H107" s="221"/>
-      <c r="I107" s="221"/>
-      <c r="J107" s="221"/>
-      <c r="K107" s="221"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="220"/>
+      <c r="D107" s="241"/>
+      <c r="E107" s="220"/>
+      <c r="F107" s="220"/>
+      <c r="G107" s="220"/>
+      <c r="H107" s="220"/>
+      <c r="I107" s="220"/>
+      <c r="J107" s="220"/>
+      <c r="K107" s="220"/>
     </row>
     <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -29422,49 +29422,49 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="261" t="s">
+      <c r="A110" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="261"/>
+      <c r="B110" s="251"/>
       <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="262" t="s">
+      <c r="D110" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="E110" s="262"/>
-      <c r="F110" s="262"/>
-      <c r="G110" s="262"/>
-      <c r="H110" s="262"/>
-      <c r="I110" s="262"/>
-      <c r="J110" s="262"/>
-      <c r="K110" s="262"/>
+      <c r="E110" s="252"/>
+      <c r="F110" s="252"/>
+      <c r="G110" s="252"/>
+      <c r="H110" s="252"/>
+      <c r="I110" s="252"/>
+      <c r="J110" s="252"/>
+      <c r="K110" s="252"/>
     </row>
     <row r="111" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="261" t="s">
+      <c r="A111" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="261"/>
-      <c r="C111" s="263" t="s">
+      <c r="B111" s="251"/>
+      <c r="C111" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="262" t="s">
+      <c r="D111" s="252" t="s">
         <v>624</v>
       </c>
-      <c r="E111" s="262"/>
-      <c r="F111" s="262"/>
-      <c r="G111" s="262"/>
-      <c r="H111" s="262"/>
-      <c r="I111" s="262"/>
-      <c r="J111" s="262"/>
-      <c r="K111" s="262"/>
+      <c r="E111" s="252"/>
+      <c r="F111" s="252"/>
+      <c r="G111" s="252"/>
+      <c r="H111" s="252"/>
+      <c r="I111" s="252"/>
+      <c r="J111" s="252"/>
+      <c r="K111" s="252"/>
     </row>
     <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="264" t="s">
+      <c r="A112" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="264"/>
-      <c r="C112" s="263" t="s">
+      <c r="B112" s="253"/>
+      <c r="C112" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -29494,32 +29494,32 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="211" t="s">
+      <c r="A114" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="213" t="s">
+      <c r="B114" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="213"/>
-      <c r="D114" s="225"/>
-      <c r="E114" s="214" t="s">
+      <c r="C114" s="232"/>
+      <c r="D114" s="242"/>
+      <c r="E114" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="232" t="s">
+      <c r="F114" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="216" t="s">
+      <c r="G114" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="227"/>
-      <c r="I114" s="227"/>
-      <c r="J114" s="227"/>
-      <c r="K114" s="216" t="s">
+      <c r="H114" s="244"/>
+      <c r="I114" s="244"/>
+      <c r="J114" s="244"/>
+      <c r="K114" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="212"/>
+      <c r="A115" s="225"/>
       <c r="B115" s="2" t="s">
         <v>14</v>
       </c>
@@ -29529,9 +29529,9 @@
       <c r="D115" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="217"/>
-      <c r="F115" s="233"/>
-      <c r="G115" s="212"/>
+      <c r="E115" s="235"/>
+      <c r="F115" s="250"/>
+      <c r="G115" s="225"/>
       <c r="H115" s="134" t="s">
         <v>206</v>
       </c>
@@ -29541,31 +29541,31 @@
       <c r="J115" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K115" s="212"/>
+      <c r="K115" s="225"/>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="229" t="s">
+      <c r="A116" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B116" s="230"/>
-      <c r="C116" s="230"/>
-      <c r="D116" s="230"/>
-      <c r="E116" s="230"/>
-      <c r="F116" s="231"/>
+      <c r="B116" s="247"/>
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="247"/>
+      <c r="F116" s="248"/>
       <c r="G116" s="184">
         <f>G102</f>
         <v>44797.140000000007</v>
       </c>
       <c r="H116" s="184">
-        <f t="shared" ref="H116:J116" si="7">H102</f>
+        <f t="shared" ref="H116:J116" si="6">H102</f>
         <v>28340</v>
       </c>
       <c r="I116" s="184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6384.1400000000012</v>
       </c>
       <c r="J116" s="184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10073</v>
       </c>
       <c r="K116" s="121"/>
@@ -29714,84 +29714,62 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="229" t="s">
+      <c r="A121" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B121" s="230"/>
-      <c r="C121" s="230"/>
-      <c r="D121" s="230"/>
-      <c r="E121" s="230"/>
-      <c r="F121" s="231"/>
+      <c r="B121" s="247"/>
+      <c r="C121" s="247"/>
+      <c r="D121" s="247"/>
+      <c r="E121" s="247"/>
+      <c r="F121" s="248"/>
       <c r="G121" s="184">
         <f>SUM(G116:G120)</f>
         <v>48612.140000000007</v>
       </c>
       <c r="H121" s="184">
-        <f t="shared" ref="H121:J121" si="8">SUM(H116:H120)</f>
+        <f t="shared" ref="H121:J121" si="7">SUM(H116:H120)</f>
         <v>32155</v>
       </c>
       <c r="I121" s="184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6384.1400000000012</v>
       </c>
       <c r="J121" s="184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10073</v>
       </c>
       <c r="K121" s="121"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K124" s="280" t="s">
+      <c r="K124" s="219" t="s">
         <v>628</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:K110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:K111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A107:K107"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:K85"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:K31"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="A53:K53"/>
@@ -29808,29 +29786,51 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:K85"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A107:K107"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:K110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:K111"/>
+    <mergeCell ref="A112:B112"/>
   </mergeCells>
   <conditionalFormatting sqref="F98 F101 F94:F95 F66:F75 F39:F49 F14:F22 F51 F77:F78 F117:F120 F103">
     <cfRule type="containsText" dxfId="58" priority="6" stopIfTrue="1" operator="containsText" text="GC">
@@ -30845,34 +30845,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30888,19 +30888,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30999,14 +30999,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
       <c r="E12" s="198" t="s">
         <v>10</v>
       </c>
@@ -31016,17 +31016,17 @@
       <c r="G12" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
       <c r="K12" s="178" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -37401,14 +37401,14 @@
       <c r="M179" s="196"/>
     </row>
     <row r="180" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="208" t="s">
+      <c r="A180" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B180" s="209"/>
-      <c r="C180" s="209"/>
-      <c r="D180" s="209"/>
-      <c r="E180" s="209"/>
-      <c r="F180" s="210"/>
+      <c r="B180" s="227"/>
+      <c r="C180" s="227"/>
+      <c r="D180" s="227"/>
+      <c r="E180" s="227"/>
+      <c r="F180" s="228"/>
       <c r="G180" s="172">
         <f>SUM(G14:G179)</f>
         <v>861472.87</v>
@@ -38493,34 +38493,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -38536,19 +38536,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -38647,34 +38647,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="216" t="s">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -38684,9 +38684,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -38696,7 +38696,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="212"/>
+      <c r="K13" s="225"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -39725,14 +39725,14 @@
       <c r="M81" s="196"/>
     </row>
     <row r="82" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="208" t="s">
+      <c r="A82" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="209"/>
-      <c r="C82" s="209"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
-      <c r="F82" s="210"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="228"/>
       <c r="G82" s="172">
         <f>SUM(G14:G81)</f>
         <v>0</v>
@@ -40790,34 +40790,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -40833,19 +40833,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -40944,34 +40944,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="216" t="s">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -40981,9 +40981,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -40993,7 +40993,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="212"/>
+      <c r="K13" s="225"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -42982,14 +42982,14 @@
       <c r="M145" s="196"/>
     </row>
     <row r="146" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="208" t="s">
+      <c r="A146" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="209"/>
-      <c r="C146" s="209"/>
-      <c r="D146" s="209"/>
-      <c r="E146" s="209"/>
-      <c r="F146" s="210"/>
+      <c r="B146" s="227"/>
+      <c r="C146" s="227"/>
+      <c r="D146" s="227"/>
+      <c r="E146" s="227"/>
+      <c r="F146" s="228"/>
       <c r="G146" s="172">
         <f>SUM(G14:G145)</f>
         <v>0</v>
@@ -44080,34 +44080,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44123,19 +44123,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -44234,15 +44234,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="180" t="s">
@@ -44261,7 +44261,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="234"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -44271,7 +44271,7 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="217"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="181"/>
       <c r="G13" s="182"/>
       <c r="H13" s="177" t="s">
@@ -50008,14 +50008,14 @@
       <c r="M163" s="195"/>
     </row>
     <row r="164" spans="1:13" s="129" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="208" t="s">
+      <c r="A164" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="209"/>
-      <c r="C164" s="209"/>
-      <c r="D164" s="209"/>
-      <c r="E164" s="209"/>
-      <c r="F164" s="210"/>
+      <c r="B164" s="227"/>
+      <c r="C164" s="227"/>
+      <c r="D164" s="227"/>
+      <c r="E164" s="227"/>
+      <c r="F164" s="228"/>
       <c r="G164" s="158">
         <f>SUM(G14:G163)</f>
         <v>836507.13999999966</v>
@@ -51042,34 +51042,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -51085,19 +51085,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -51196,14 +51196,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="237"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="198" t="s">
         <v>10</v>
       </c>
@@ -51223,7 +51223,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="234"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -57242,14 +57242,14 @@
       <c r="M163" s="195"/>
     </row>
     <row r="164" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="208" t="s">
+      <c r="A164" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="209"/>
-      <c r="C164" s="209"/>
-      <c r="D164" s="209"/>
-      <c r="E164" s="209"/>
-      <c r="F164" s="210"/>
+      <c r="B164" s="227"/>
+      <c r="C164" s="227"/>
+      <c r="D164" s="227"/>
+      <c r="E164" s="227"/>
+      <c r="F164" s="228"/>
       <c r="G164" s="158">
         <f>SUM(G14:G163)</f>
         <v>836507.13999999966</v>
@@ -58293,34 +58293,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -58336,19 +58336,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -58447,34 +58447,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="214" t="s">
+      <c r="C12" s="232"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="216" t="s">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="224" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -58484,9 +58484,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="212"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -58496,7 +58496,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="212"/>
+      <c r="K13" s="225"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -59525,14 +59525,14 @@
       <c r="M81" s="196"/>
     </row>
     <row r="82" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="208" t="s">
+      <c r="A82" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="209"/>
-      <c r="C82" s="209"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
-      <c r="F82" s="210"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="228"/>
       <c r="G82" s="172">
         <f>SUM(G14:G81)</f>
         <v>0</v>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2018.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2018.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="793" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="793" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="2018-RO" sheetId="8" r:id="rId2"/>
-    <sheet name="G.SUPERVISION" sheetId="22" r:id="rId3"/>
+    <sheet name="G.SUPERVISION-ok" sheetId="22" r:id="rId3"/>
     <sheet name="2.6.7.1.6.(1.2.3)RO" sheetId="23" r:id="rId4"/>
     <sheet name="GASTOS GENERALES" sheetId="25" r:id="rId5"/>
     <sheet name="COSTO DIRECTO" sheetId="26" r:id="rId6"/>
@@ -29,16 +29,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2.6.7.1.6.(1.2.3)END'!$E$13:$M$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.6.7.1.6.(1.2.3)RO'!$E$13:$K$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2018-END.'!$H$13:$K$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018-RO'!$F$13:$M$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018-RO'!$D$13:$N$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'COSTO DIRECTO'!$H$13:$J$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'COSTO DIRECTO END.'!$H$13:$J$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$13:$K$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'G.SUPERVISION-ok'!$E$13:$K$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'GASTOS GENERALES'!$H$13:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'GASTOS GENERALES END.'!$H$13:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">EQUIPAMIENTO!$B$1:$N$182</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'G.SUPERVISION-ok'!$A$1:$K$126</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3786,6 +3786,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3859,9 +3862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4842,42 +4842,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="231"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4897,23 +4897,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5036,38 +5036,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="233" t="s">
+      <c r="F12" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="221" t="s">
+      <c r="H12" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="223"/>
-      <c r="O12" s="224" t="s">
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -5077,9 +5077,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="225"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="225"/>
+      <c r="O13" s="226"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5672,14 +5672,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="226" t="s">
+      <c r="A32" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="227"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="228"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="229"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5712,42 +5712,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="229" t="s">
+      <c r="A35" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="229"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="229"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="229"/>
-      <c r="L35" s="229"/>
-      <c r="M35" s="229"/>
-      <c r="N35" s="229"/>
-      <c r="O35" s="229"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="230"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="230"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="230" t="s">
+      <c r="A36" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="230"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="230"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="230"/>
-      <c r="N36" s="230"/>
-      <c r="O36" s="230"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="231"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="231"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="231"/>
+      <c r="M36" s="231"/>
+      <c r="N36" s="231"/>
+      <c r="O36" s="231"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5870,38 +5870,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="231" t="s">
+      <c r="A43" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="232" t="s">
+      <c r="B43" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="233" t="s">
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="233" t="s">
+      <c r="F43" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="224" t="s">
+      <c r="G43" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="221" t="s">
+      <c r="H43" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="222"/>
-      <c r="J43" s="222"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="222"/>
-      <c r="N43" s="223"/>
-      <c r="O43" s="224" t="s">
+      <c r="I43" s="223"/>
+      <c r="J43" s="223"/>
+      <c r="K43" s="223"/>
+      <c r="L43" s="223"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="224"/>
+      <c r="O43" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="225"/>
+      <c r="A44" s="226"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5911,9 +5911,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="234"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="225"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="226"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5935,17 +5935,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="225"/>
+      <c r="O44" s="226"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="236" t="s">
+      <c r="A45" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="237"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="238"/>
+      <c r="B45" s="238"/>
+      <c r="C45" s="238"/>
+      <c r="D45" s="238"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="239"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -6400,14 +6400,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="226" t="s">
+      <c r="A66" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="227"/>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="227"/>
-      <c r="F66" s="228"/>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="229"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -6440,42 +6440,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="229" t="s">
+      <c r="A69" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="229"/>
-      <c r="C69" s="229"/>
-      <c r="D69" s="229"/>
-      <c r="E69" s="229"/>
-      <c r="F69" s="229"/>
-      <c r="G69" s="229"/>
-      <c r="H69" s="229"/>
-      <c r="I69" s="229"/>
-      <c r="J69" s="229"/>
-      <c r="K69" s="229"/>
-      <c r="L69" s="229"/>
-      <c r="M69" s="229"/>
-      <c r="N69" s="229"/>
-      <c r="O69" s="229"/>
+      <c r="B69" s="230"/>
+      <c r="C69" s="230"/>
+      <c r="D69" s="230"/>
+      <c r="E69" s="230"/>
+      <c r="F69" s="230"/>
+      <c r="G69" s="230"/>
+      <c r="H69" s="230"/>
+      <c r="I69" s="230"/>
+      <c r="J69" s="230"/>
+      <c r="K69" s="230"/>
+      <c r="L69" s="230"/>
+      <c r="M69" s="230"/>
+      <c r="N69" s="230"/>
+      <c r="O69" s="230"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="230" t="s">
+      <c r="A70" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="230"/>
-      <c r="C70" s="230"/>
-      <c r="D70" s="230"/>
-      <c r="E70" s="230"/>
-      <c r="F70" s="230"/>
-      <c r="G70" s="230"/>
-      <c r="H70" s="230"/>
-      <c r="I70" s="230"/>
-      <c r="J70" s="230"/>
-      <c r="K70" s="230"/>
-      <c r="L70" s="230"/>
-      <c r="M70" s="230"/>
-      <c r="N70" s="230"/>
-      <c r="O70" s="230"/>
+      <c r="B70" s="231"/>
+      <c r="C70" s="231"/>
+      <c r="D70" s="231"/>
+      <c r="E70" s="231"/>
+      <c r="F70" s="231"/>
+      <c r="G70" s="231"/>
+      <c r="H70" s="231"/>
+      <c r="I70" s="231"/>
+      <c r="J70" s="231"/>
+      <c r="K70" s="231"/>
+      <c r="L70" s="231"/>
+      <c r="M70" s="231"/>
+      <c r="N70" s="231"/>
+      <c r="O70" s="231"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6598,38 +6598,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="231" t="s">
+      <c r="A77" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="232" t="s">
+      <c r="B77" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="232"/>
-      <c r="D77" s="232"/>
-      <c r="E77" s="233" t="s">
+      <c r="C77" s="233"/>
+      <c r="D77" s="233"/>
+      <c r="E77" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="233" t="s">
+      <c r="F77" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="224" t="s">
+      <c r="G77" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="221" t="s">
+      <c r="H77" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="222"/>
-      <c r="J77" s="222"/>
-      <c r="K77" s="222"/>
-      <c r="L77" s="222"/>
-      <c r="M77" s="222"/>
-      <c r="N77" s="223"/>
-      <c r="O77" s="224" t="s">
+      <c r="I77" s="223"/>
+      <c r="J77" s="223"/>
+      <c r="K77" s="223"/>
+      <c r="L77" s="223"/>
+      <c r="M77" s="223"/>
+      <c r="N77" s="224"/>
+      <c r="O77" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="225"/>
+      <c r="A78" s="226"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6639,9 +6639,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="234"/>
-      <c r="F78" s="235"/>
-      <c r="G78" s="225"/>
+      <c r="E78" s="235"/>
+      <c r="F78" s="236"/>
+      <c r="G78" s="226"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6663,17 +6663,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="225"/>
+      <c r="O78" s="226"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="236" t="s">
+      <c r="A79" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="237"/>
-      <c r="C79" s="237"/>
-      <c r="D79" s="237"/>
-      <c r="E79" s="237"/>
-      <c r="F79" s="238"/>
+      <c r="B79" s="238"/>
+      <c r="C79" s="238"/>
+      <c r="D79" s="238"/>
+      <c r="E79" s="238"/>
+      <c r="F79" s="239"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -7106,14 +7106,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="226" t="s">
+      <c r="A99" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="227"/>
-      <c r="C99" s="227"/>
-      <c r="D99" s="227"/>
-      <c r="E99" s="227"/>
-      <c r="F99" s="228"/>
+      <c r="B99" s="228"/>
+      <c r="C99" s="228"/>
+      <c r="D99" s="228"/>
+      <c r="E99" s="228"/>
+      <c r="F99" s="229"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -7199,42 +7199,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="229" t="s">
+      <c r="A105" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="229"/>
-      <c r="C105" s="229"/>
-      <c r="D105" s="229"/>
-      <c r="E105" s="229"/>
-      <c r="F105" s="229"/>
-      <c r="G105" s="229"/>
-      <c r="H105" s="229"/>
-      <c r="I105" s="229"/>
-      <c r="J105" s="229"/>
-      <c r="K105" s="229"/>
-      <c r="L105" s="229"/>
-      <c r="M105" s="229"/>
-      <c r="N105" s="229"/>
-      <c r="O105" s="229"/>
+      <c r="B105" s="230"/>
+      <c r="C105" s="230"/>
+      <c r="D105" s="230"/>
+      <c r="E105" s="230"/>
+      <c r="F105" s="230"/>
+      <c r="G105" s="230"/>
+      <c r="H105" s="230"/>
+      <c r="I105" s="230"/>
+      <c r="J105" s="230"/>
+      <c r="K105" s="230"/>
+      <c r="L105" s="230"/>
+      <c r="M105" s="230"/>
+      <c r="N105" s="230"/>
+      <c r="O105" s="230"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="230" t="s">
+      <c r="A106" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="230"/>
-      <c r="C106" s="230"/>
-      <c r="D106" s="230"/>
-      <c r="E106" s="230"/>
-      <c r="F106" s="230"/>
-      <c r="G106" s="230"/>
-      <c r="H106" s="230"/>
-      <c r="I106" s="230"/>
-      <c r="J106" s="230"/>
-      <c r="K106" s="230"/>
-      <c r="L106" s="230"/>
-      <c r="M106" s="230"/>
-      <c r="N106" s="230"/>
-      <c r="O106" s="230"/>
+      <c r="B106" s="231"/>
+      <c r="C106" s="231"/>
+      <c r="D106" s="231"/>
+      <c r="E106" s="231"/>
+      <c r="F106" s="231"/>
+      <c r="G106" s="231"/>
+      <c r="H106" s="231"/>
+      <c r="I106" s="231"/>
+      <c r="J106" s="231"/>
+      <c r="K106" s="231"/>
+      <c r="L106" s="231"/>
+      <c r="M106" s="231"/>
+      <c r="N106" s="231"/>
+      <c r="O106" s="231"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -7254,23 +7254,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="220" t="s">
+      <c r="A108" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="220"/>
-      <c r="C108" s="220"/>
-      <c r="D108" s="220"/>
-      <c r="E108" s="220"/>
-      <c r="F108" s="220"/>
-      <c r="G108" s="220"/>
-      <c r="H108" s="220"/>
-      <c r="I108" s="220"/>
-      <c r="J108" s="220"/>
-      <c r="K108" s="220"/>
-      <c r="L108" s="220"/>
-      <c r="M108" s="220"/>
-      <c r="N108" s="220"/>
-      <c r="O108" s="220"/>
+      <c r="B108" s="221"/>
+      <c r="C108" s="221"/>
+      <c r="D108" s="221"/>
+      <c r="E108" s="221"/>
+      <c r="F108" s="221"/>
+      <c r="G108" s="221"/>
+      <c r="H108" s="221"/>
+      <c r="I108" s="221"/>
+      <c r="J108" s="221"/>
+      <c r="K108" s="221"/>
+      <c r="L108" s="221"/>
+      <c r="M108" s="221"/>
+      <c r="N108" s="221"/>
+      <c r="O108" s="221"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -7393,38 +7393,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="231" t="s">
+      <c r="A115" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="232" t="s">
+      <c r="B115" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="232"/>
-      <c r="D115" s="232"/>
-      <c r="E115" s="233" t="s">
+      <c r="C115" s="233"/>
+      <c r="D115" s="233"/>
+      <c r="E115" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="233" t="s">
+      <c r="F115" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="224" t="s">
+      <c r="G115" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="221" t="s">
+      <c r="H115" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="222"/>
-      <c r="J115" s="222"/>
-      <c r="K115" s="222"/>
-      <c r="L115" s="222"/>
-      <c r="M115" s="222"/>
-      <c r="N115" s="223"/>
-      <c r="O115" s="224" t="s">
+      <c r="I115" s="223"/>
+      <c r="J115" s="223"/>
+      <c r="K115" s="223"/>
+      <c r="L115" s="223"/>
+      <c r="M115" s="223"/>
+      <c r="N115" s="224"/>
+      <c r="O115" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="225"/>
+      <c r="A116" s="226"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -7434,9 +7434,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="234"/>
-      <c r="F116" s="235"/>
-      <c r="G116" s="225"/>
+      <c r="E116" s="235"/>
+      <c r="F116" s="236"/>
+      <c r="G116" s="226"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="225"/>
+      <c r="O116" s="226"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7587,14 +7587,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="226" t="s">
+      <c r="A122" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="227"/>
-      <c r="C122" s="227"/>
-      <c r="D122" s="227"/>
-      <c r="E122" s="227"/>
-      <c r="F122" s="228"/>
+      <c r="B122" s="228"/>
+      <c r="C122" s="228"/>
+      <c r="D122" s="228"/>
+      <c r="E122" s="228"/>
+      <c r="F122" s="229"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -8660,34 +8660,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8703,19 +8703,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -8814,34 +8814,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="224" t="s">
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -8851,9 +8851,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="250"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -8863,7 +8863,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="225"/>
+      <c r="K13" s="226"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -10852,14 +10852,14 @@
       <c r="M145" s="196"/>
     </row>
     <row r="146" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="226" t="s">
+      <c r="A146" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="227"/>
-      <c r="C146" s="227"/>
-      <c r="D146" s="227"/>
-      <c r="E146" s="227"/>
-      <c r="F146" s="228"/>
+      <c r="B146" s="228"/>
+      <c r="C146" s="228"/>
+      <c r="D146" s="228"/>
+      <c r="E146" s="228"/>
+      <c r="F146" s="229"/>
       <c r="G146" s="172">
         <f>SUM(G14:G145)</f>
         <v>0</v>
@@ -11005,21 +11005,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -11037,21 +11037,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -11391,21 +11391,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
+      <c r="N23" s="221"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -11423,21 +11423,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="220" t="s">
+      <c r="B25" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -11736,21 +11736,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="220"/>
-      <c r="K43" s="220"/>
-      <c r="L43" s="220"/>
-      <c r="M43" s="220"/>
-      <c r="N43" s="220"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="221"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -11768,21 +11768,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="220" t="s">
+      <c r="B45" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="220"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="220"/>
-      <c r="N45" s="220"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -12072,21 +12072,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="220" t="s">
+      <c r="B64" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="220"/>
-      <c r="F64" s="220"/>
-      <c r="G64" s="220"/>
-      <c r="H64" s="220"/>
-      <c r="I64" s="220"/>
-      <c r="J64" s="220"/>
-      <c r="K64" s="220"/>
-      <c r="L64" s="220"/>
-      <c r="M64" s="220"/>
-      <c r="N64" s="220"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="221"/>
+      <c r="G64" s="221"/>
+      <c r="H64" s="221"/>
+      <c r="I64" s="221"/>
+      <c r="J64" s="221"/>
+      <c r="K64" s="221"/>
+      <c r="L64" s="221"/>
+      <c r="M64" s="221"/>
+      <c r="N64" s="221"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -12104,21 +12104,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
-      <c r="G66" s="220"/>
-      <c r="H66" s="220"/>
-      <c r="I66" s="220"/>
-      <c r="J66" s="220"/>
-      <c r="K66" s="220"/>
-      <c r="L66" s="220"/>
-      <c r="M66" s="220"/>
-      <c r="N66" s="220"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="221"/>
+      <c r="G66" s="221"/>
+      <c r="H66" s="221"/>
+      <c r="I66" s="221"/>
+      <c r="J66" s="221"/>
+      <c r="K66" s="221"/>
+      <c r="L66" s="221"/>
+      <c r="M66" s="221"/>
+      <c r="N66" s="221"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -12514,21 +12514,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -13139,21 +13139,21 @@
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="220" t="s">
+      <c r="B35" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="220"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="220"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="221"/>
+      <c r="J35" s="221"/>
+      <c r="K35" s="221"/>
+      <c r="L35" s="221"/>
+      <c r="M35" s="221"/>
+      <c r="N35" s="221"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -13725,21 +13725,21 @@
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="220" t="s">
+      <c r="B67" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
-      <c r="E67" s="220"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="220"/>
-      <c r="H67" s="220"/>
-      <c r="I67" s="220"/>
-      <c r="J67" s="220"/>
-      <c r="K67" s="220"/>
-      <c r="L67" s="220"/>
-      <c r="M67" s="220"/>
-      <c r="N67" s="220"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="221"/>
+      <c r="G67" s="221"/>
+      <c r="H67" s="221"/>
+      <c r="I67" s="221"/>
+      <c r="J67" s="221"/>
+      <c r="K67" s="221"/>
+      <c r="L67" s="221"/>
+      <c r="M67" s="221"/>
+      <c r="N67" s="221"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -14390,21 +14390,21 @@
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="220" t="s">
+      <c r="B101" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="220"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="220"/>
-      <c r="F101" s="220"/>
-      <c r="G101" s="220"/>
-      <c r="H101" s="220"/>
-      <c r="I101" s="220"/>
-      <c r="J101" s="220"/>
-      <c r="K101" s="220"/>
-      <c r="L101" s="220"/>
-      <c r="M101" s="220"/>
-      <c r="N101" s="220"/>
+      <c r="C101" s="221"/>
+      <c r="D101" s="221"/>
+      <c r="E101" s="221"/>
+      <c r="F101" s="221"/>
+      <c r="G101" s="221"/>
+      <c r="H101" s="221"/>
+      <c r="I101" s="221"/>
+      <c r="J101" s="221"/>
+      <c r="K101" s="221"/>
+      <c r="L101" s="221"/>
+      <c r="M101" s="221"/>
+      <c r="N101" s="221"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -14982,21 +14982,21 @@
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="220" t="s">
+      <c r="B134" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="220"/>
-      <c r="D134" s="220"/>
-      <c r="E134" s="220"/>
-      <c r="F134" s="220"/>
-      <c r="G134" s="220"/>
-      <c r="H134" s="220"/>
-      <c r="I134" s="220"/>
-      <c r="J134" s="220"/>
-      <c r="K134" s="220"/>
-      <c r="L134" s="220"/>
-      <c r="M134" s="220"/>
-      <c r="N134" s="220"/>
+      <c r="C134" s="221"/>
+      <c r="D134" s="221"/>
+      <c r="E134" s="221"/>
+      <c r="F134" s="221"/>
+      <c r="G134" s="221"/>
+      <c r="H134" s="221"/>
+      <c r="I134" s="221"/>
+      <c r="J134" s="221"/>
+      <c r="K134" s="221"/>
+      <c r="L134" s="221"/>
+      <c r="M134" s="221"/>
+      <c r="N134" s="221"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -15530,21 +15530,21 @@
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="220" t="s">
+      <c r="B165" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="220"/>
-      <c r="D165" s="220"/>
-      <c r="E165" s="220"/>
-      <c r="F165" s="220"/>
-      <c r="G165" s="220"/>
-      <c r="H165" s="220"/>
-      <c r="I165" s="220"/>
-      <c r="J165" s="220"/>
-      <c r="K165" s="220"/>
-      <c r="L165" s="220"/>
-      <c r="M165" s="220"/>
-      <c r="N165" s="220"/>
+      <c r="C165" s="221"/>
+      <c r="D165" s="221"/>
+      <c r="E165" s="221"/>
+      <c r="F165" s="221"/>
+      <c r="G165" s="221"/>
+      <c r="H165" s="221"/>
+      <c r="I165" s="221"/>
+      <c r="J165" s="221"/>
+      <c r="K165" s="221"/>
+      <c r="L165" s="221"/>
+      <c r="M165" s="221"/>
+      <c r="N165" s="221"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -15953,8 +15953,8 @@
   </sheetPr>
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView topLeftCell="C201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16922,40 +16922,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -16974,22 +16974,22 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -17106,15 +17106,15 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="198" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="180" t="s">
@@ -17123,20 +17123,20 @@
       <c r="G12" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="224" t="s">
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="245"/>
+      <c r="N12" s="178" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -17146,7 +17146,7 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
+      <c r="E13" s="202"/>
       <c r="F13" s="181"/>
       <c r="G13" s="182"/>
       <c r="H13" s="134" t="s">
@@ -17167,7 +17167,7 @@
       <c r="M13" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="245"/>
+      <c r="N13" s="220"/>
       <c r="O13" s="179" t="s">
         <v>614</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="150">
         <v>4</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="124">
         <v>5</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="124">
         <v>6</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="150">
         <v>7</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="124">
         <v>8</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="124">
         <v>9</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="150">
         <v>10</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="124">
         <v>11</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="124">
         <v>12</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="150">
         <v>13</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="124">
         <v>17</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="124">
         <v>18</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="150">
         <v>19</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="124">
         <v>20</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="124">
         <v>21</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="150">
         <v>22</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="124">
         <v>23</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="124">
         <v>24</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="150">
         <v>25</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124">
         <v>26</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="124">
         <v>27</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="150">
         <v>28</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="124">
         <v>29</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="124">
         <v>30</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="150">
         <v>31</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="124">
         <v>32</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="124">
         <v>33</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="150">
         <v>34</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="124">
         <v>36</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="124">
         <v>38</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="124">
         <v>39</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="150">
         <v>40</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="124">
         <v>41</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="124">
         <v>42</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="150">
         <v>43</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="124">
         <v>44</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="124">
         <v>45</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="150">
         <v>46</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="124">
         <v>47</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="124">
         <v>48</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="150">
         <v>49</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="124">
         <v>50</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="124">
         <v>51</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="150">
         <v>52</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="124">
         <v>53</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="124">
         <v>54</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="150">
         <v>55</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="124">
         <v>56</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="124">
         <v>57</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="150">
         <v>58</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="124">
         <v>59</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="124">
         <v>60</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="150">
         <v>61</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="124">
         <v>62</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="124">
         <v>63</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="150">
         <v>64</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="124">
         <v>65</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="124">
         <v>66</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="150">
         <v>67</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="124">
         <v>68</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="124">
         <v>69</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="150">
         <v>70</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="124">
         <v>71</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="124">
         <v>72</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="150">
         <v>73</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="124">
         <v>74</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="124">
         <v>75</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="150">
         <v>76</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="124">
         <v>77</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="124">
         <v>78</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="150">
         <v>79</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="124">
         <v>80</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="124">
         <v>81</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="150">
         <v>82</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="124">
         <v>83</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="124">
         <v>84</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="124">
         <v>87</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="150">
         <v>88</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="124">
         <v>89</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="124">
         <v>90</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="150">
         <v>91</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="124">
         <v>92</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="124">
         <v>93</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="150">
         <v>94</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="124">
         <v>95</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="124">
         <v>96</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="150">
         <v>97</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="124">
         <v>98</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="124">
         <v>99</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="150">
         <v>100</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="124">
         <v>101</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="124">
         <v>102</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="150">
         <v>103</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="124">
         <v>104</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="124">
         <v>105</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>106</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="124">
         <v>107</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="124">
         <v>108</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="150">
         <v>109</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="124">
         <v>110</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="124">
         <v>111</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>112</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="124">
         <v>113</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="124">
         <v>114</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="150">
         <v>115</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="124">
         <v>116</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="124">
         <v>117</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="150">
         <v>118</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="124">
         <v>119</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124">
         <v>120</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="150">
         <v>121</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="124">
         <v>122</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="124">
         <v>123</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="150">
         <v>124</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="129" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="124">
         <v>125</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="130" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="124">
         <v>126</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="150">
         <v>127</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="124">
         <v>128</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="124">
         <v>129</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="150">
         <v>130</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="124">
         <v>131</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="124">
         <v>132</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="150">
         <v>133</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124">
         <v>134</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="124">
         <v>135</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="150">
         <v>136</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="124">
         <v>137</v>
       </c>
@@ -22720,7 +22720,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="124">
         <v>138</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="150">
         <v>139</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="150">
         <v>142</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="124">
         <v>143</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="124">
         <v>144</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="150">
         <v>145</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="124">
         <v>146</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="124">
         <v>147</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="150">
         <v>148</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="124">
         <v>149</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="124">
         <v>150</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="150">
         <v>151</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="124">
         <v>152</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="124">
         <v>153</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="150">
         <v>154</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="124">
         <v>155</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="124">
         <v>156</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="150">
         <v>157</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="124">
         <v>158</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="124">
         <v>159</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="150">
         <v>160</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="124">
         <v>161</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="124">
         <v>162</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="150">
         <v>163</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="124">
         <v>164</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="124">
         <v>165</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="150">
         <v>166</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="124">
         <v>167</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="124">
         <v>168</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="150">
         <v>169</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="124">
         <v>170</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="124">
         <v>171</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="150">
         <v>172</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="124">
         <v>173</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="124">
         <v>174</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="150">
         <v>175</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="124">
         <v>176</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="124">
         <v>177</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="150">
         <v>178</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="124">
         <v>180</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="150">
         <v>181</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="124">
         <v>182</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="124">
         <v>183</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="150">
         <v>184</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="124">
         <v>185</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="124">
         <v>186</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="150">
         <v>187</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="124">
         <v>188</v>
       </c>
@@ -24923,7 +24923,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="124">
         <v>189</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="150">
         <v>190</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="124">
         <v>191</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="124">
         <v>192</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="150">
         <v>193</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="124">
         <v>194</v>
       </c>
@@ -25193,7 +25193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="124">
         <v>195</v>
       </c>
@@ -25238,7 +25238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="150">
         <v>196</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="124">
         <v>197</v>
       </c>
@@ -25328,7 +25328,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="124">
         <v>198</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="150">
         <v>199</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="124">
         <v>200</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="202" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="124">
         <v>201</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="203" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="150">
         <v>202</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="204" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="124">
         <v>203</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="205" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="124">
         <v>207</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="206" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="150">
         <v>208</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="124">
         <v>209</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="124">
         <v>210</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="124">
         <v>212</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="124">
         <v>213</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="150">
         <v>214</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="124">
         <v>215</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="124">
         <v>216</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="150">
         <v>217</v>
       </c>
@@ -26070,7 +26070,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="124">
         <v>218</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="124">
         <v>219</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="150">
         <v>220</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="124">
         <v>221</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="124">
         <v>222</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="124">
         <v>225</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="150">
         <v>226</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="124">
         <v>227</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="124">
         <v>228</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" s="129" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="150">
         <v>229</v>
       </c>
@@ -26596,14 +26596,14 @@
       </c>
     </row>
     <row r="226" spans="1:14" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="226" t="s">
+      <c r="A226" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B226" s="227"/>
-      <c r="C226" s="227"/>
-      <c r="D226" s="227"/>
-      <c r="E226" s="227"/>
-      <c r="F226" s="228"/>
+      <c r="B226" s="228"/>
+      <c r="C226" s="228"/>
+      <c r="D226" s="228"/>
+      <c r="E226" s="228"/>
+      <c r="F226" s="229"/>
       <c r="G226" s="172">
         <f>SUM(G14:G225)</f>
         <v>910085.01000000024</v>
@@ -26660,17 +26660,15 @@
       <c r="L229" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="F13:M228"/>
-  <mergeCells count="9">
+  <autoFilter ref="D13:N13"/>
+  <mergeCells count="7">
     <mergeCell ref="A226:F226"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="F55 F123:F124 F212 F59:F88 F113:F117 F151:F174 F98:F109 F93 F22 F20 F14:F18 F215:F225 F176:F205 F133:F147 F90:F91 F24:F52 F208:F209">
     <cfRule type="containsText" dxfId="76" priority="20" stopIfTrue="1" operator="containsText" text="GC">
@@ -26771,8 +26769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A109" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26796,34 +26794,34 @@
       <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26839,19 +26837,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26956,32 +26954,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="224" t="s">
+      <c r="H12" s="245"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26991,9 +26989,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="235"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="255"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="134" t="s">
         <v>206</v>
       </c>
@@ -27003,7 +27001,7 @@
       <c r="J13" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="225"/>
+      <c r="K13" s="226"/>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="150">
@@ -27338,7 +27336,7 @@
         <v>9810</v>
       </c>
       <c r="I23" s="184">
-        <f t="shared" ref="H23:J23" si="0">SUM(I14:I22)</f>
+        <f t="shared" ref="I23" si="0">SUM(I14:I22)</f>
         <v>0</v>
       </c>
       <c r="J23" s="184">
@@ -27361,34 +27359,34 @@
       <c r="K24" s="206"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="229" t="s">
+      <c r="A25" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="229"/>
-      <c r="C25" s="229"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="229"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="229"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="230"/>
+      <c r="K25" s="230"/>
     </row>
     <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
-      <c r="K26" s="230"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -27404,19 +27402,19 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="221"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -27523,32 +27521,32 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="231" t="s">
+      <c r="A35" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="232" t="s">
+      <c r="B35" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="232"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="233" t="s">
+      <c r="C35" s="233"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="224" t="s">
+      <c r="G35" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="224" t="s">
+      <c r="H35" s="245"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="245"/>
+      <c r="K35" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="225"/>
+      <c r="A36" s="226"/>
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
@@ -27558,9 +27556,9 @@
       <c r="D36" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="235"/>
+      <c r="E36" s="236"/>
       <c r="F36" s="255"/>
-      <c r="G36" s="225"/>
+      <c r="G36" s="226"/>
       <c r="H36" s="134" t="s">
         <v>206</v>
       </c>
@@ -27570,7 +27568,7 @@
       <c r="J36" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="225"/>
+      <c r="K36" s="226"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="246" t="s">
@@ -27590,7 +27588,7 @@
         <v>9810</v>
       </c>
       <c r="I37" s="184">
-        <f t="shared" ref="H37:J37" si="1">I23</f>
+        <f t="shared" ref="I37" si="1">I23</f>
         <v>0</v>
       </c>
       <c r="J37" s="184">
@@ -28014,14 +28012,14 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="226" t="s">
+      <c r="A50" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="227"/>
-      <c r="C50" s="227"/>
-      <c r="D50" s="227"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="228"/>
+      <c r="B50" s="228"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="228"/>
+      <c r="E50" s="228"/>
+      <c r="F50" s="229"/>
       <c r="G50" s="217">
         <f>SUM(G37:G49)</f>
         <v>31377</v>
@@ -28054,34 +28052,34 @@
       <c r="K51" s="215"/>
     </row>
     <row r="52" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="229" t="s">
+      <c r="A52" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="229"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="229"/>
-      <c r="J52" s="229"/>
-      <c r="K52" s="229"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="230"/>
+      <c r="D52" s="240"/>
+      <c r="E52" s="230"/>
+      <c r="F52" s="230"/>
+      <c r="G52" s="230"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="230"/>
+      <c r="J52" s="230"/>
+      <c r="K52" s="230"/>
     </row>
     <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A53" s="230" t="s">
+      <c r="A53" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="230"/>
-      <c r="C53" s="230"/>
-      <c r="D53" s="240"/>
-      <c r="E53" s="230"/>
-      <c r="F53" s="230"/>
-      <c r="G53" s="230"/>
-      <c r="H53" s="230"/>
-      <c r="I53" s="230"/>
-      <c r="J53" s="230"/>
-      <c r="K53" s="230"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="241"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="231"/>
+      <c r="K53" s="231"/>
     </row>
     <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -28097,19 +28095,19 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="220" t="s">
+      <c r="A55" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="220"/>
-      <c r="C55" s="220"/>
-      <c r="D55" s="241"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="220"/>
-      <c r="H55" s="220"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="220"/>
-      <c r="K55" s="220"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="242"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="221"/>
+      <c r="K55" s="221"/>
     </row>
     <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -28216,32 +28214,32 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="231" t="s">
+      <c r="A62" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="232" t="s">
+      <c r="B62" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="232"/>
-      <c r="D62" s="242"/>
-      <c r="E62" s="233" t="s">
+      <c r="C62" s="233"/>
+      <c r="D62" s="243"/>
+      <c r="E62" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="224" t="s">
+      <c r="G62" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="244"/>
-      <c r="I62" s="244"/>
-      <c r="J62" s="244"/>
-      <c r="K62" s="224" t="s">
+      <c r="H62" s="245"/>
+      <c r="I62" s="245"/>
+      <c r="J62" s="245"/>
+      <c r="K62" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="225"/>
+      <c r="A63" s="226"/>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
@@ -28251,9 +28249,9 @@
       <c r="D63" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="235"/>
+      <c r="E63" s="236"/>
       <c r="F63" s="255"/>
-      <c r="G63" s="225"/>
+      <c r="G63" s="226"/>
       <c r="H63" s="134" t="s">
         <v>206</v>
       </c>
@@ -28263,7 +28261,7 @@
       <c r="J63" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K63" s="225"/>
+      <c r="K63" s="226"/>
     </row>
     <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="246" t="s">
@@ -28674,14 +28672,14 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="226" t="s">
+      <c r="A76" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="227"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
-      <c r="F76" s="228"/>
+      <c r="B76" s="228"/>
+      <c r="C76" s="228"/>
+      <c r="D76" s="228"/>
+      <c r="E76" s="228"/>
+      <c r="F76" s="229"/>
       <c r="G76" s="217">
         <f>SUM(G64:G75)</f>
         <v>41306.600000000006</v>
@@ -28727,34 +28725,34 @@
       <c r="K78" s="215"/>
     </row>
     <row r="79" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="229" t="s">
+      <c r="A79" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="229"/>
-      <c r="C79" s="229"/>
-      <c r="D79" s="239"/>
-      <c r="E79" s="229"/>
-      <c r="F79" s="229"/>
-      <c r="G79" s="229"/>
-      <c r="H79" s="229"/>
-      <c r="I79" s="229"/>
-      <c r="J79" s="229"/>
-      <c r="K79" s="229"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="230"/>
+      <c r="D79" s="240"/>
+      <c r="E79" s="230"/>
+      <c r="F79" s="230"/>
+      <c r="G79" s="230"/>
+      <c r="H79" s="230"/>
+      <c r="I79" s="230"/>
+      <c r="J79" s="230"/>
+      <c r="K79" s="230"/>
     </row>
     <row r="80" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A80" s="230" t="s">
+      <c r="A80" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="230"/>
-      <c r="C80" s="230"/>
-      <c r="D80" s="240"/>
-      <c r="E80" s="230"/>
-      <c r="F80" s="230"/>
-      <c r="G80" s="230"/>
-      <c r="H80" s="230"/>
-      <c r="I80" s="230"/>
-      <c r="J80" s="230"/>
-      <c r="K80" s="230"/>
+      <c r="B80" s="231"/>
+      <c r="C80" s="231"/>
+      <c r="D80" s="241"/>
+      <c r="E80" s="231"/>
+      <c r="F80" s="231"/>
+      <c r="G80" s="231"/>
+      <c r="H80" s="231"/>
+      <c r="I80" s="231"/>
+      <c r="J80" s="231"/>
+      <c r="K80" s="231"/>
     </row>
     <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -28770,19 +28768,19 @@
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="220" t="s">
+      <c r="A82" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="220"/>
-      <c r="C82" s="220"/>
-      <c r="D82" s="241"/>
-      <c r="E82" s="220"/>
-      <c r="F82" s="220"/>
-      <c r="G82" s="220"/>
-      <c r="H82" s="220"/>
-      <c r="I82" s="220"/>
-      <c r="J82" s="220"/>
-      <c r="K82" s="220"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="221"/>
+      <c r="D82" s="242"/>
+      <c r="E82" s="221"/>
+      <c r="F82" s="221"/>
+      <c r="G82" s="221"/>
+      <c r="H82" s="221"/>
+      <c r="I82" s="221"/>
+      <c r="J82" s="221"/>
+      <c r="K82" s="221"/>
     </row>
     <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -28889,32 +28887,32 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="231" t="s">
+      <c r="A89" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="232" t="s">
+      <c r="B89" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="232"/>
-      <c r="D89" s="242"/>
-      <c r="E89" s="233" t="s">
+      <c r="C89" s="233"/>
+      <c r="D89" s="243"/>
+      <c r="E89" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="224" t="s">
+      <c r="G89" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="244"/>
-      <c r="I89" s="244"/>
-      <c r="J89" s="244"/>
-      <c r="K89" s="224" t="s">
+      <c r="H89" s="245"/>
+      <c r="I89" s="245"/>
+      <c r="J89" s="245"/>
+      <c r="K89" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="225"/>
+      <c r="A90" s="226"/>
       <c r="B90" s="2" t="s">
         <v>14</v>
       </c>
@@ -28924,9 +28922,9 @@
       <c r="D90" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="235"/>
+      <c r="E90" s="236"/>
       <c r="F90" s="255"/>
-      <c r="G90" s="225"/>
+      <c r="G90" s="226"/>
       <c r="H90" s="134" t="s">
         <v>206</v>
       </c>
@@ -28936,7 +28934,7 @@
       <c r="J90" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K90" s="225"/>
+      <c r="K90" s="226"/>
     </row>
     <row r="91" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="246" t="s">
@@ -29305,7 +29303,7 @@
         <v>44797.140000000007</v>
       </c>
       <c r="H102" s="184">
-        <f t="shared" ref="H102:J102" si="5">SUM(H91:H101)</f>
+        <f t="shared" ref="H102:I102" si="5">SUM(H91:H101)</f>
         <v>28340</v>
       </c>
       <c r="I102" s="184">
@@ -29332,34 +29330,34 @@
       <c r="K103" s="215"/>
     </row>
     <row r="104" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="229" t="s">
+      <c r="A104" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="229"/>
-      <c r="C104" s="229"/>
-      <c r="D104" s="239"/>
-      <c r="E104" s="229"/>
-      <c r="F104" s="229"/>
-      <c r="G104" s="229"/>
-      <c r="H104" s="229"/>
-      <c r="I104" s="229"/>
-      <c r="J104" s="229"/>
-      <c r="K104" s="229"/>
+      <c r="B104" s="230"/>
+      <c r="C104" s="230"/>
+      <c r="D104" s="240"/>
+      <c r="E104" s="230"/>
+      <c r="F104" s="230"/>
+      <c r="G104" s="230"/>
+      <c r="H104" s="230"/>
+      <c r="I104" s="230"/>
+      <c r="J104" s="230"/>
+      <c r="K104" s="230"/>
     </row>
     <row r="105" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A105" s="230" t="s">
+      <c r="A105" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="230"/>
-      <c r="C105" s="230"/>
-      <c r="D105" s="240"/>
-      <c r="E105" s="230"/>
-      <c r="F105" s="230"/>
-      <c r="G105" s="230"/>
-      <c r="H105" s="230"/>
-      <c r="I105" s="230"/>
-      <c r="J105" s="230"/>
-      <c r="K105" s="230"/>
+      <c r="B105" s="231"/>
+      <c r="C105" s="231"/>
+      <c r="D105" s="241"/>
+      <c r="E105" s="231"/>
+      <c r="F105" s="231"/>
+      <c r="G105" s="231"/>
+      <c r="H105" s="231"/>
+      <c r="I105" s="231"/>
+      <c r="J105" s="231"/>
+      <c r="K105" s="231"/>
     </row>
     <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -29375,19 +29373,19 @@
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="220" t="s">
+      <c r="A107" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="220"/>
-      <c r="C107" s="220"/>
-      <c r="D107" s="241"/>
-      <c r="E107" s="220"/>
-      <c r="F107" s="220"/>
-      <c r="G107" s="220"/>
-      <c r="H107" s="220"/>
-      <c r="I107" s="220"/>
-      <c r="J107" s="220"/>
-      <c r="K107" s="220"/>
+      <c r="B107" s="221"/>
+      <c r="C107" s="221"/>
+      <c r="D107" s="242"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
+      <c r="G107" s="221"/>
+      <c r="H107" s="221"/>
+      <c r="I107" s="221"/>
+      <c r="J107" s="221"/>
+      <c r="K107" s="221"/>
     </row>
     <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -29494,32 +29492,32 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="231" t="s">
+      <c r="A114" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="232"/>
-      <c r="D114" s="242"/>
-      <c r="E114" s="233" t="s">
+      <c r="C114" s="233"/>
+      <c r="D114" s="243"/>
+      <c r="E114" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="224" t="s">
+      <c r="G114" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="244"/>
-      <c r="I114" s="244"/>
-      <c r="J114" s="244"/>
-      <c r="K114" s="224" t="s">
+      <c r="H114" s="245"/>
+      <c r="I114" s="245"/>
+      <c r="J114" s="245"/>
+      <c r="K114" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="225"/>
+      <c r="A115" s="226"/>
       <c r="B115" s="2" t="s">
         <v>14</v>
       </c>
@@ -29529,9 +29527,9 @@
       <c r="D115" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="235"/>
+      <c r="E115" s="236"/>
       <c r="F115" s="250"/>
-      <c r="G115" s="225"/>
+      <c r="G115" s="226"/>
       <c r="H115" s="134" t="s">
         <v>206</v>
       </c>
@@ -29541,7 +29539,7 @@
       <c r="J115" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="K115" s="225"/>
+      <c r="K115" s="226"/>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="246" t="s">
@@ -29877,8 +29875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30845,34 +30843,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30888,19 +30886,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30999,14 +30997,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
       <c r="E12" s="198" t="s">
         <v>10</v>
       </c>
@@ -31016,17 +31014,17 @@
       <c r="G12" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
       <c r="K12" s="178" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -37401,14 +37399,14 @@
       <c r="M179" s="196"/>
     </row>
     <row r="180" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="226" t="s">
+      <c r="A180" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B180" s="227"/>
-      <c r="C180" s="227"/>
-      <c r="D180" s="227"/>
-      <c r="E180" s="227"/>
-      <c r="F180" s="228"/>
+      <c r="B180" s="228"/>
+      <c r="C180" s="228"/>
+      <c r="D180" s="228"/>
+      <c r="E180" s="228"/>
+      <c r="F180" s="229"/>
       <c r="G180" s="172">
         <f>SUM(G14:G179)</f>
         <v>861472.87</v>
@@ -38493,34 +38491,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -38536,19 +38534,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -38647,34 +38645,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="224" t="s">
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -38684,9 +38682,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="250"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -38696,7 +38694,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="225"/>
+      <c r="K13" s="226"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -39725,14 +39723,14 @@
       <c r="M81" s="196"/>
     </row>
     <row r="82" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="226" t="s">
+      <c r="A82" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="227"/>
-      <c r="C82" s="227"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
-      <c r="F82" s="228"/>
+      <c r="B82" s="228"/>
+      <c r="C82" s="228"/>
+      <c r="D82" s="228"/>
+      <c r="E82" s="228"/>
+      <c r="F82" s="229"/>
       <c r="G82" s="172">
         <f>SUM(G14:G81)</f>
         <v>0</v>
@@ -40790,34 +40788,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -40833,19 +40831,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -40944,34 +40942,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="224" t="s">
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -40981,9 +40979,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="250"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -40993,7 +40991,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="225"/>
+      <c r="K13" s="226"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -42982,14 +42980,14 @@
       <c r="M145" s="196"/>
     </row>
     <row r="146" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="226" t="s">
+      <c r="A146" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="227"/>
-      <c r="C146" s="227"/>
-      <c r="D146" s="227"/>
-      <c r="E146" s="227"/>
-      <c r="F146" s="228"/>
+      <c r="B146" s="228"/>
+      <c r="C146" s="228"/>
+      <c r="D146" s="228"/>
+      <c r="E146" s="228"/>
+      <c r="F146" s="229"/>
       <c r="G146" s="172">
         <f>SUM(G14:G145)</f>
         <v>0</v>
@@ -44080,34 +44078,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44123,19 +44121,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -44234,7 +44232,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="257" t="s">
@@ -44242,7 +44240,7 @@
       </c>
       <c r="C12" s="258"/>
       <c r="D12" s="259"/>
-      <c r="E12" s="233" t="s">
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="180" t="s">
@@ -44271,7 +44269,7 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="235"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="181"/>
       <c r="G13" s="182"/>
       <c r="H13" s="177" t="s">
@@ -50008,14 +50006,14 @@
       <c r="M163" s="195"/>
     </row>
     <row r="164" spans="1:13" s="129" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="226" t="s">
+      <c r="A164" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="227"/>
-      <c r="C164" s="227"/>
-      <c r="D164" s="227"/>
-      <c r="E164" s="227"/>
-      <c r="F164" s="228"/>
+      <c r="B164" s="228"/>
+      <c r="C164" s="228"/>
+      <c r="D164" s="228"/>
+      <c r="E164" s="228"/>
+      <c r="F164" s="229"/>
       <c r="G164" s="158">
         <f>SUM(G14:G163)</f>
         <v>836507.13999999966</v>
@@ -51042,34 +51040,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -51085,19 +51083,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -51196,7 +51194,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="257" t="s">
@@ -57242,14 +57240,14 @@
       <c r="M163" s="195"/>
     </row>
     <row r="164" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="226" t="s">
+      <c r="A164" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="227"/>
-      <c r="C164" s="227"/>
-      <c r="D164" s="227"/>
-      <c r="E164" s="227"/>
-      <c r="F164" s="228"/>
+      <c r="B164" s="228"/>
+      <c r="C164" s="228"/>
+      <c r="D164" s="228"/>
+      <c r="E164" s="228"/>
+      <c r="F164" s="229"/>
       <c r="G164" s="158">
         <f>SUM(G14:G163)</f>
         <v>836507.13999999966</v>
@@ -58293,34 +58291,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -58336,19 +58334,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -58447,34 +58445,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="233" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="234" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="224" t="s">
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -58484,9 +58482,9 @@
       <c r="D13" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="234"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="250"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="134" t="s">
         <v>203</v>
       </c>
@@ -58496,7 +58494,7 @@
       <c r="J13" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="225"/>
+      <c r="K13" s="226"/>
       <c r="L13" s="197" t="s">
         <v>614</v>
       </c>
@@ -59525,14 +59523,14 @@
       <c r="M81" s="196"/>
     </row>
     <row r="82" spans="1:13" s="129" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="226" t="s">
+      <c r="A82" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="227"/>
-      <c r="C82" s="227"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
-      <c r="F82" s="228"/>
+      <c r="B82" s="228"/>
+      <c r="C82" s="228"/>
+      <c r="D82" s="228"/>
+      <c r="E82" s="228"/>
+      <c r="F82" s="229"/>
       <c r="G82" s="172">
         <f>SUM(G14:G81)</f>
         <v>0</v>
